--- a/data_preprocessing/tiefenerhebung/TE_data/#Alle_Daten_DB_TE_inkl_TEK_GEO_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/#Alle_Daten_DB_TE_inkl_TEK_GEO_Auszug.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Technological University Dublin\GitHub\DIBS---Dynamic-ISO-Building-Simulator\data_preprocessing\tiefenerhebung\TE_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/data_preprocessing/tiefenerhebung/TE_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB6321B-A1EF-4C3B-A806-DB42CCCD9F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9FB6321B-A1EF-4C3B-A806-DB42CCCD9F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA7CBCF2-3ED4-4712-9E44-5D117660B560}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="901">
   <si>
     <t>pr_var_name</t>
   </si>
@@ -2476,9 +2476,6 @@
     <t>I-jalou_45°_weiß</t>
   </si>
   <si>
-    <t>A-markise_grau</t>
-  </si>
-  <si>
     <t>massiv</t>
   </si>
   <si>
@@ -2491,9 +2488,6 @@
     <t>vorgehängte Platten</t>
   </si>
   <si>
-    <t>2-schaliges Mauerwerk</t>
-  </si>
-  <si>
     <t>Bestehendes Gebäude ohne Dichtheitstest</t>
   </si>
   <si>
@@ -2518,12 +2512,6 @@
     <t>Heizkörper (90/70)</t>
   </si>
   <si>
-    <t>Flächen-Heizung (55/45) [Standard]</t>
-  </si>
-  <si>
-    <t>Luftheizung</t>
-  </si>
-  <si>
     <t>Ventilatorkonvektor</t>
   </si>
   <si>
@@ -2536,9 +2524,6 @@
     <t>Multi-Split-System - ein/aus</t>
   </si>
   <si>
-    <t>Kühldecke</t>
-  </si>
-  <si>
     <t>27 Ausstellung</t>
   </si>
   <si>
@@ -2557,21 +2542,12 @@
     <t>08 Klassenzimmer</t>
   </si>
   <si>
-    <t>06 Einzelhandel</t>
-  </si>
-  <si>
     <t>20 Lager, Technik</t>
   </si>
   <si>
-    <t>23 Zuschauer</t>
-  </si>
-  <si>
     <t>17 sonstige Aufenthaltsräume</t>
   </si>
   <si>
-    <t>31 Sporthalle</t>
-  </si>
-  <si>
     <t>09 Hörsaal</t>
   </si>
   <si>
@@ -2608,15 +2584,9 @@
     <t>halogen</t>
   </si>
   <si>
-    <t>dis_cmp_in_el</t>
-  </si>
-  <si>
     <t>indirekt beheizt</t>
   </si>
   <si>
-    <t>Multi-Split-System - stetig geregelt</t>
-  </si>
-  <si>
     <t>6 / 12 °C</t>
   </si>
   <si>
@@ -2671,9 +2641,6 @@
     <t>WRG-k</t>
   </si>
   <si>
-    <t>WRG-W</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -2683,9 +2650,6 @@
     <t>wood-chip_c_temp_buffer_from95</t>
   </si>
   <si>
-    <t>l_temp_from95</t>
-  </si>
-  <si>
     <t>cond_from95</t>
   </si>
   <si>
@@ -2701,9 +2665,6 @@
     <t>distr_cog_re</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -2728,9 +2689,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>chp_mini</t>
-  </si>
-  <si>
     <t>oil_gas</t>
   </si>
   <si>
@@ -2765,33 +2723,6 @@
   </si>
   <si>
     <t>AB123456_0_11</t>
-  </si>
-  <si>
-    <t>AB123456_0_12</t>
-  </si>
-  <si>
-    <t>AB123456_0_13</t>
-  </si>
-  <si>
-    <t>AB123456_0_14</t>
-  </si>
-  <si>
-    <t>AB123456_0_15</t>
-  </si>
-  <si>
-    <t>AB123456_0_16</t>
-  </si>
-  <si>
-    <t>AB123456_0_17</t>
-  </si>
-  <si>
-    <t>AB123456_0_18</t>
-  </si>
-  <si>
-    <t>AB123456_0_19</t>
-  </si>
-  <si>
-    <t>AB123456_0_20</t>
   </si>
 </sst>
 </file>
@@ -3193,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ADO21"/>
+  <dimension ref="A1:ADO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD51"/>
+      <selection activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,7 +5524,7 @@
     </row>
     <row r="2" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="B2">
         <v>3046</v>
@@ -5695,7 +5626,7 @@
         <v>814</v>
       </c>
       <c r="AI2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ2">
         <v>2.8571428571428572</v>
@@ -5704,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AM2">
         <v>16</v>
@@ -5713,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP2">
         <v>8</v>
@@ -5722,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="AR2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS2">
         <v>3</v>
@@ -5743,19 +5674,19 @@
         <v>1228.4000000000001</v>
       </c>
       <c r="AY2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AZ2" t="s">
+        <v>830</v>
+      </c>
+      <c r="BA2" t="s">
         <v>834</v>
       </c>
-      <c r="BA2" t="s">
-        <v>839</v>
-      </c>
       <c r="BB2" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC2" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="BD2">
         <v>20</v>
@@ -5782,19 +5713,19 @@
         <v>522.9</v>
       </c>
       <c r="BL2" t="s">
+        <v>828</v>
+      </c>
+      <c r="BM2" t="s">
         <v>830</v>
       </c>
-      <c r="BM2" t="s">
-        <v>834</v>
-      </c>
       <c r="BN2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="BO2" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BP2" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ2">
         <v>2</v>
@@ -5818,19 +5749,19 @@
         <v>244.85</v>
       </c>
       <c r="BY2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BZ2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA2" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="CB2" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CC2" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD2">
         <v>20</v>
@@ -5854,19 +5785,19 @@
         <v>244.85</v>
       </c>
       <c r="CL2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="CM2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CN2" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="CO2" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CP2" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ2">
         <v>20</v>
@@ -5890,19 +5821,19 @@
         <v>498</v>
       </c>
       <c r="CY2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="CZ2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="DB2" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC2" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="DD2">
         <v>10</v>
@@ -5926,19 +5857,19 @@
         <v>498</v>
       </c>
       <c r="DL2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="DM2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="DO2" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP2" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="DQ2">
         <v>10</v>
@@ -5962,19 +5893,19 @@
         <v>415</v>
       </c>
       <c r="DY2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="DZ2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EA2" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="EB2" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="EC2" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="ED2">
         <v>4</v>
@@ -5986,28 +5917,28 @@
         <v>41.75</v>
       </c>
       <c r="ZT2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="ZU2">
         <v>0.6</v>
       </c>
       <c r="ZV2" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW2" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="ZX2" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY2">
         <v>250</v>
       </c>
       <c r="ZZ2" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAB2">
         <v>0</v>
@@ -6016,7 +5947,7 @@
         <v>2160</v>
       </c>
       <c r="AAD2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="AAE2">
         <v>0.6</v>
@@ -6031,7 +5962,7 @@
         <v>1350</v>
       </c>
       <c r="AAN2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="AAO2">
         <v>0.6</v>
@@ -6075,7 +6006,7 @@
     </row>
     <row r="3" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="B3">
         <v>1589</v>
@@ -6177,7 +6108,7 @@
         <v>815</v>
       </c>
       <c r="AI3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -6195,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AO3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -6204,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="AR3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS3">
         <v>1</v>
@@ -6225,19 +6156,19 @@
         <v>76.194000000000003</v>
       </c>
       <c r="AY3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AZ3" t="s">
+        <v>831</v>
+      </c>
+      <c r="BA3" t="s">
         <v>835</v>
       </c>
-      <c r="BA3" t="s">
-        <v>840</v>
-      </c>
       <c r="BB3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BC3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="BD3">
         <v>4</v>
@@ -6261,19 +6192,19 @@
         <v>42.33</v>
       </c>
       <c r="BL3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BM3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="BO3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BP3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="BQ3">
         <v>10</v>
@@ -6297,19 +6228,19 @@
         <v>8.4659999999999993</v>
       </c>
       <c r="BY3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BZ3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA3" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="CB3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CC3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="CD3">
         <v>10</v>
@@ -6333,19 +6264,19 @@
         <v>16.931999999999999</v>
       </c>
       <c r="CL3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="CM3" t="s">
+        <v>832</v>
+      </c>
+      <c r="CN3" t="s">
         <v>836</v>
       </c>
-      <c r="CN3" t="s">
-        <v>841</v>
-      </c>
       <c r="CO3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CP3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="CQ3">
         <v>10</v>
@@ -6369,19 +6300,19 @@
         <v>25.398</v>
       </c>
       <c r="CY3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="CZ3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA3" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="DB3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DC3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="DD3">
         <v>5</v>
@@ -6393,22 +6324,22 @@
         <v>10</v>
       </c>
       <c r="ZV3" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="ZW3" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="ZX3" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY3">
         <v>26</v>
       </c>
       <c r="ZZ3" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA3" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="AAB3">
         <v>20</v>
@@ -6417,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="AAJ3" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAK3" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="AAL3">
         <v>20</v>
@@ -6452,7 +6383,7 @@
     </row>
     <row r="4" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B4">
         <v>15366</v>
@@ -6554,7 +6485,7 @@
         <v>816</v>
       </c>
       <c r="AI4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ4">
         <v>3.2380952380952368</v>
@@ -6572,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP4">
         <v>4.6666666666666679</v>
@@ -6581,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="AR4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -6599,19 +6530,19 @@
         <v>85.140000000000015</v>
       </c>
       <c r="AY4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AZ4" t="s">
+        <v>832</v>
+      </c>
+      <c r="BA4" t="s">
         <v>836</v>
       </c>
-      <c r="BA4" t="s">
-        <v>841</v>
-      </c>
       <c r="BB4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD4">
         <v>6</v>
@@ -6635,19 +6566,19 @@
         <v>85.14</v>
       </c>
       <c r="BL4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BM4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="BO4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BP4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ4">
         <v>20</v>
@@ -6671,19 +6602,19 @@
         <v>85.14</v>
       </c>
       <c r="BY4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BZ4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA4" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="CB4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CC4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD4">
         <v>4</v>
@@ -6707,19 +6638,19 @@
         <v>28.38</v>
       </c>
       <c r="CL4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="CM4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CN4" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="CO4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CP4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ4">
         <v>1</v>
@@ -6743,19 +6674,19 @@
         <v>28.38</v>
       </c>
       <c r="CY4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="CZ4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA4" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="DB4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD4">
         <v>15</v>
@@ -6779,19 +6710,19 @@
         <v>1277.0999999999999</v>
       </c>
       <c r="DL4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="DM4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="DO4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ4">
         <v>15</v>
@@ -6815,19 +6746,19 @@
         <v>113.52</v>
       </c>
       <c r="DY4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="DZ4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EA4" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="EB4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EC4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="ED4">
         <v>5</v>
@@ -6839,19 +6770,19 @@
         <v>6</v>
       </c>
       <c r="ZV4" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="ZW4" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="ZX4" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="ZY4">
         <v>115</v>
       </c>
       <c r="AAF4" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="AAI4">
         <v>0</v>
@@ -6883,7 +6814,7 @@
     </row>
     <row r="5" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="B5">
         <v>16321</v>
@@ -6985,7 +6916,7 @@
         <v>817</v>
       </c>
       <c r="AI5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -7003,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="AO5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -7012,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -7030,19 +6961,19 @@
         <v>101.83716124999999</v>
       </c>
       <c r="AY5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AZ5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA5" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD5">
         <v>1</v>
@@ -7066,19 +6997,19 @@
         <v>37.989411249999989</v>
       </c>
       <c r="BL5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BM5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN5" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="BO5" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="BP5" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="BQ5">
         <v>15</v>
@@ -7102,19 +7033,19 @@
         <v>19.154325</v>
       </c>
       <c r="BY5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BZ5" t="s">
+        <v>832</v>
+      </c>
+      <c r="CA5" t="s">
         <v>836</v>
       </c>
-      <c r="CA5" t="s">
-        <v>841</v>
-      </c>
       <c r="CB5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CC5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD5">
         <v>2</v>
@@ -7138,19 +7069,19 @@
         <v>31.923874999999999</v>
       </c>
       <c r="CL5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="CM5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CN5" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="CO5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CP5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ5">
         <v>4</v>
@@ -7174,19 +7105,19 @@
         <v>45.331902499999998</v>
       </c>
       <c r="CY5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="CZ5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA5" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="DB5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC5" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="DD5">
         <v>4</v>
@@ -7210,19 +7141,19 @@
         <v>38.308649999999993</v>
       </c>
       <c r="DL5" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="DM5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="DO5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -7234,25 +7165,25 @@
         <v>12.92</v>
       </c>
       <c r="ZV5" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="ZW5" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="ZX5" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="ZY5">
         <v>23</v>
       </c>
       <c r="AAF5" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="AAG5" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="AAH5" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="AAI5">
         <v>22.4</v>
@@ -7284,7 +7215,7 @@
     </row>
     <row r="6" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="B6">
         <v>14727</v>
@@ -7386,7 +7317,7 @@
         <v>816</v>
       </c>
       <c r="AI6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -7404,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP6">
         <v>7.333333333333333</v>
@@ -7413,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -7431,19 +7362,19 @@
         <v>15.523</v>
       </c>
       <c r="AY6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AZ6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA6" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB6" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD6">
         <v>1</v>
@@ -7467,19 +7398,19 @@
         <v>223.858</v>
       </c>
       <c r="BL6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BM6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN6" t="s">
+        <v>839</v>
+      </c>
+      <c r="BO6" t="s">
         <v>844</v>
       </c>
-      <c r="BO6" t="s">
-        <v>852</v>
-      </c>
       <c r="BP6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ6">
         <v>12</v>
@@ -7503,19 +7434,19 @@
         <v>16.34</v>
       </c>
       <c r="BY6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="BZ6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA6" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="CB6" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CC6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD6">
         <v>1</v>
@@ -7539,19 +7470,19 @@
         <v>15.523</v>
       </c>
       <c r="CL6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="CM6" t="s">
+        <v>832</v>
+      </c>
+      <c r="CN6" t="s">
         <v>836</v>
       </c>
-      <c r="CN6" t="s">
-        <v>841</v>
-      </c>
       <c r="CO6" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CP6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ6">
         <v>8</v>
@@ -7575,19 +7506,19 @@
         <v>31.045999999999999</v>
       </c>
       <c r="CY6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="CZ6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA6" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="DB6" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD6">
         <v>24</v>
@@ -7611,19 +7542,19 @@
         <v>8.17</v>
       </c>
       <c r="DL6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="DM6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN6" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="DO6" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ6">
         <v>1</v>
@@ -7635,13 +7566,13 @@
         <v>30</v>
       </c>
       <c r="ZV6" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="ZW6" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="ZX6" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY6">
         <v>25.6</v>
@@ -7676,7 +7607,7 @@
     </row>
     <row r="7" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B7">
         <v>14727</v>
@@ -7778,7 +7709,7 @@
         <v>816</v>
       </c>
       <c r="AI7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AJ7">
         <v>10</v>
@@ -7787,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AM7">
         <v>15</v>
@@ -7796,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP7">
         <v>5</v>
@@ -7805,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -7823,19 +7754,19 @@
         <v>174.96</v>
       </c>
       <c r="AY7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AZ7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA7" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="BD7">
         <v>1</v>
@@ -7859,19 +7790,19 @@
         <v>2216.16</v>
       </c>
       <c r="BL7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BM7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN7" t="s">
+        <v>839</v>
+      </c>
+      <c r="BO7" t="s">
         <v>844</v>
       </c>
-      <c r="BO7" t="s">
-        <v>852</v>
-      </c>
       <c r="BP7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="BQ7">
         <v>26</v>
@@ -7895,19 +7826,19 @@
         <v>58.320000000000007</v>
       </c>
       <c r="BY7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="BZ7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA7" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="CB7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CC7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="CD7">
         <v>2</v>
@@ -7931,19 +7862,19 @@
         <v>116.64</v>
       </c>
       <c r="CL7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="CM7" t="s">
+        <v>832</v>
+      </c>
+      <c r="CN7" t="s">
         <v>836</v>
       </c>
-      <c r="CN7" t="s">
-        <v>841</v>
-      </c>
       <c r="CO7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CP7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="CQ7">
         <v>8</v>
@@ -7967,19 +7898,19 @@
         <v>116.64</v>
       </c>
       <c r="CY7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="CZ7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA7" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="DB7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="DD7">
         <v>1</v>
@@ -8003,19 +7934,19 @@
         <v>758.16000000000008</v>
       </c>
       <c r="DL7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="DM7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN7" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="DO7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="DQ7">
         <v>100</v>
@@ -8039,19 +7970,19 @@
         <v>58.320000000000007</v>
       </c>
       <c r="DY7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="DZ7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EA7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="EB7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EC7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="ED7">
         <v>1</v>
@@ -8063,13 +7994,13 @@
         <v>250</v>
       </c>
       <c r="ZV7" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW7" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="ZX7" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY7">
         <v>420</v>
@@ -8104,7 +8035,7 @@
     </row>
     <row r="8" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="B8">
         <v>14770</v>
@@ -8206,7 +8137,7 @@
         <v>808</v>
       </c>
       <c r="AI8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -8224,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -8233,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="AR8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -8251,19 +8182,19 @@
         <v>472.41000000000008</v>
       </c>
       <c r="AY8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AZ8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA8" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD8">
         <v>1</v>
@@ -8287,19 +8218,19 @@
         <v>1417.23</v>
       </c>
       <c r="BL8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BM8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN8" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="BO8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BP8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ8">
         <v>2</v>
@@ -8323,19 +8254,19 @@
         <v>2739.9780000000001</v>
       </c>
       <c r="BY8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BZ8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA8" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="CB8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CC8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD8">
         <v>70</v>
@@ -8359,19 +8290,19 @@
         <v>472.41000000000008</v>
       </c>
       <c r="CL8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CM8" t="s">
+        <v>832</v>
+      </c>
+      <c r="CN8" t="s">
         <v>836</v>
       </c>
-      <c r="CN8" t="s">
-        <v>841</v>
-      </c>
       <c r="CO8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CP8" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="CQ8">
         <v>6</v>
@@ -8395,19 +8326,19 @@
         <v>118.10250000000001</v>
       </c>
       <c r="CY8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CZ8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DA8" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="DB8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD8">
         <v>20</v>
@@ -8431,19 +8362,19 @@
         <v>2385.6705000000002</v>
       </c>
       <c r="DL8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DM8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN8" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="DO8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ8">
         <v>40</v>
@@ -8470,19 +8401,19 @@
         <v>2787.219000000001</v>
       </c>
       <c r="DY8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DZ8" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="EA8" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="EB8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EC8" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -8506,19 +8437,19 @@
         <v>1889.64</v>
       </c>
       <c r="EL8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="EM8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EN8" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="EO8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EP8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="EQ8">
         <v>12</v>
@@ -8530,22 +8461,22 @@
         <v>15.45</v>
       </c>
       <c r="ZV8" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW8" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="ZX8" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY8">
         <v>576</v>
       </c>
       <c r="ZZ8" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA8" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAB8">
         <v>110</v>
@@ -8580,7 +8511,7 @@
     </row>
     <row r="9" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="B9">
         <v>14770</v>
@@ -8682,7 +8613,7 @@
         <v>816</v>
       </c>
       <c r="AI9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ9">
         <v>0.85714285714285765</v>
@@ -8691,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="AL9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -8700,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="AO9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP9">
         <v>3.333333333333333</v>
@@ -8709,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="AR9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS9">
         <v>1</v>
@@ -8727,19 +8658,19 @@
         <v>377.14499999999998</v>
       </c>
       <c r="AY9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AZ9" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA9" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BC9" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD9">
         <v>1</v>
@@ -8763,19 +8694,19 @@
         <v>1131.4349999999999</v>
       </c>
       <c r="BL9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BM9" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN9" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="BO9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BP9" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ9">
         <v>12</v>
@@ -8802,19 +8733,19 @@
         <v>1571.4375</v>
       </c>
       <c r="BY9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BZ9" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="CA9" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="CB9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CC9" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD9">
         <v>150</v>
@@ -8838,19 +8769,19 @@
         <v>220.00125</v>
       </c>
       <c r="CL9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CM9" t="s">
+        <v>832</v>
+      </c>
+      <c r="CN9" t="s">
         <v>836</v>
       </c>
-      <c r="CN9" t="s">
-        <v>841</v>
-      </c>
       <c r="CO9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="CP9" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="CQ9">
         <v>6</v>
@@ -8877,19 +8808,19 @@
         <v>188.57249999999999</v>
       </c>
       <c r="CY9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CZ9" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="DA9" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="DB9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DC9" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD9">
         <v>10</v>
@@ -8913,19 +8844,19 @@
         <v>534.28875000000005</v>
       </c>
       <c r="DL9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DM9" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN9" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="DO9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="DP9" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="DQ9">
         <v>500</v>
@@ -8952,19 +8883,19 @@
         <v>377.14499999999998</v>
       </c>
       <c r="DY9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DZ9" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="EA9" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="EB9" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EC9" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="ED9">
         <v>0</v>
@@ -8976,28 +8907,28 @@
         <v>10.43</v>
       </c>
       <c r="ZT9" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="ZU9">
         <v>0</v>
       </c>
       <c r="ZV9" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW9" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="ZX9" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY9">
         <v>250</v>
       </c>
       <c r="ZZ9" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA9" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAB9">
         <v>7</v>
@@ -9035,7 +8966,7 @@
     </row>
     <row r="10" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="B10">
         <v>14770</v>
@@ -9137,7 +9068,7 @@
         <v>808</v>
       </c>
       <c r="AI10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -9155,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -9164,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="AR10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -9182,19 +9113,19 @@
         <v>281.7</v>
       </c>
       <c r="AY10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AZ10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA10" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BC10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD10">
         <v>15</v>
@@ -9218,19 +9149,19 @@
         <v>563.4</v>
       </c>
       <c r="BL10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BM10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN10" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="BO10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BP10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ10">
         <v>40</v>
@@ -9254,19 +9185,19 @@
         <v>507.06</v>
       </c>
       <c r="BY10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BZ10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA10" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="CB10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CC10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD10">
         <v>40</v>
@@ -9290,19 +9221,19 @@
         <v>169.02</v>
       </c>
       <c r="CL10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CM10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CN10" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="CO10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CP10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ10">
         <v>0</v>
@@ -9326,19 +9257,19 @@
         <v>112.68</v>
       </c>
       <c r="CY10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CZ10" t="s">
+        <v>832</v>
+      </c>
+      <c r="DA10" t="s">
         <v>836</v>
       </c>
-      <c r="DA10" t="s">
-        <v>841</v>
-      </c>
       <c r="DB10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DC10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD10">
         <v>6</v>
@@ -9362,19 +9293,19 @@
         <v>56.34</v>
       </c>
       <c r="DL10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DM10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN10" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="DO10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DP10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ10">
         <v>0</v>
@@ -9398,19 +9329,19 @@
         <v>450.72</v>
       </c>
       <c r="DY10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DZ10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EA10" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="EB10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="EC10" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="ED10">
         <v>10</v>
@@ -9437,19 +9368,19 @@
         <v>112.68</v>
       </c>
       <c r="EL10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="EM10" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="EN10" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="EO10" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EP10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="EQ10">
         <v>0</v>
@@ -9461,22 +9392,22 @@
         <v>8.16</v>
       </c>
       <c r="ZV10" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW10" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="ZX10" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY10">
         <v>180</v>
       </c>
       <c r="ZZ10" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA10" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAB10">
         <v>7</v>
@@ -9511,7 +9442,7 @@
     </row>
     <row r="11" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="B11">
         <v>14770</v>
@@ -9613,7 +9544,7 @@
         <v>816</v>
       </c>
       <c r="AI11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ11">
         <v>0.85714285714285765</v>
@@ -9622,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="AL11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -9631,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP11">
         <v>3.333333333333333</v>
@@ -9640,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AS11">
         <v>1</v>
@@ -9658,19 +9589,19 @@
         <v>3069.5340000000001</v>
       </c>
       <c r="AY11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AZ11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BA11" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="BB11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BC11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD11">
         <v>1</v>
@@ -9694,19 +9625,19 @@
         <v>390.19500000000011</v>
       </c>
       <c r="BL11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BM11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN11" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="BO11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BP11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BQ11">
         <v>50</v>
@@ -9730,19 +9661,19 @@
         <v>585.29250000000002</v>
       </c>
       <c r="BY11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="BZ11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CA11" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="CB11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CC11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD11">
         <v>132</v>
@@ -9766,19 +9697,19 @@
         <v>65.032500000000013</v>
       </c>
       <c r="CL11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CM11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CN11" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="CO11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CP11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ11">
         <v>132</v>
@@ -9802,19 +9733,19 @@
         <v>416.20800000000008</v>
       </c>
       <c r="CY11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="CZ11" t="s">
+        <v>832</v>
+      </c>
+      <c r="DA11" t="s">
         <v>836</v>
       </c>
-      <c r="DA11" t="s">
-        <v>841</v>
-      </c>
       <c r="DB11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DC11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD11">
         <v>6</v>
@@ -9838,19 +9769,19 @@
         <v>3381.690000000001</v>
       </c>
       <c r="DL11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DM11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="DN11" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="DO11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DP11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ11">
         <v>12</v>
@@ -9874,19 +9805,19 @@
         <v>1586.793000000001</v>
       </c>
       <c r="DY11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="DZ11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EA11" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="EB11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="EC11" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="ED11">
         <v>500</v>
@@ -9913,19 +9844,19 @@
         <v>390.19500000000011</v>
       </c>
       <c r="EL11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="EM11" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="EN11" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="EO11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="EP11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="EQ11">
         <v>0</v>
@@ -9949,19 +9880,19 @@
         <v>1040.52</v>
       </c>
       <c r="EY11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="EZ11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="FA11" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="FB11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="FC11" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="FD11">
         <v>50</v>
@@ -9973,28 +9904,28 @@
         <v>28.540800000000001</v>
       </c>
       <c r="ZT11" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="ZU11">
         <v>0</v>
       </c>
       <c r="ZV11" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW11" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="ZX11" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY11">
         <v>200</v>
       </c>
       <c r="ZZ11" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA11" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAB11">
         <v>8</v>
@@ -10032,7 +9963,7 @@
     </row>
     <row r="12" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="B12">
         <v>76137</v>
@@ -10134,7 +10065,7 @@
         <v>816</v>
       </c>
       <c r="AI12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AJ12">
         <v>11.428571428571431</v>
@@ -10143,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AM12">
         <v>18.285714285714281</v>
@@ -10152,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AP12">
         <v>5</v>
@@ -10161,7 +10092,7 @@
         <v>0.5</v>
       </c>
       <c r="AR12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -10182,19 +10113,19 @@
         <v>2314.89</v>
       </c>
       <c r="AY12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AZ12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="BA12" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="BB12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BC12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BD12">
         <v>2</v>
@@ -10218,19 +10149,19 @@
         <v>551.08687499999996</v>
       </c>
       <c r="BL12" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="BM12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BN12" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="BO12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BP12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BR12">
         <v>96</v>
@@ -10251,19 +10182,19 @@
         <v>170.69062500000001</v>
       </c>
       <c r="BY12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="BZ12" t="s">
+        <v>832</v>
+      </c>
+      <c r="CA12" t="s">
         <v>836</v>
       </c>
-      <c r="CA12" t="s">
-        <v>841</v>
-      </c>
       <c r="CB12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CC12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CD12">
         <v>2</v>
@@ -10287,19 +10218,19 @@
         <v>138.17812499999999</v>
       </c>
       <c r="CL12" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="CM12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="CN12" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="CO12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="CP12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="CQ12">
         <v>1</v>
@@ -10326,19 +10257,19 @@
         <v>97.537499999999994</v>
       </c>
       <c r="CY12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="CZ12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="DA12" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="DB12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DC12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DD12">
         <v>30</v>
@@ -10365,19 +10296,19 @@
         <v>82.906874999999999</v>
       </c>
       <c r="DL12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="DM12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="DN12" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="DO12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="DP12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="DQ12">
         <v>10</v>
@@ -10401,19 +10332,19 @@
         <v>97.537499999999994</v>
       </c>
       <c r="DY12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="DZ12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="EA12" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="EB12" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="EC12" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="ED12">
         <v>6</v>
@@ -10437,16 +10368,16 @@
         <v>221.08500000000001</v>
       </c>
       <c r="EM12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="EN12" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="EO12" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="EP12" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="EQ12">
         <v>1</v>
@@ -10458,43 +10389,43 @@
         <v>200</v>
       </c>
       <c r="ZV12" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="ZW12" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="ZX12" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="ZY12">
         <v>250</v>
       </c>
       <c r="ZZ12" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAA12" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAB12">
         <v>44.1</v>
       </c>
       <c r="AAF12" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="AAG12" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="AAH12" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="AAI12">
         <v>20</v>
       </c>
       <c r="AAJ12" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAK12" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAL12">
         <v>31</v>
@@ -10503,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="AAT12" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AAU12" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AAV12">
         <v>2</v>
@@ -10515,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="ABD12" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="ABE12" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="ABF12">
         <v>5.3</v>
@@ -10527,10 +10458,10 @@
         <v>0</v>
       </c>
       <c r="ABN12" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="ABO12" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="ABP12">
         <v>5.3</v>
@@ -10548,4671 +10479,6 @@
         <v>0</v>
       </c>
       <c r="ADK12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:795" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>915</v>
-      </c>
-      <c r="B13">
-        <v>76131</v>
-      </c>
-      <c r="C13">
-        <v>2003</v>
-      </c>
-      <c r="D13">
-        <v>14619.15</v>
-      </c>
-      <c r="E13">
-        <v>0.95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G13">
-        <v>3.47</v>
-      </c>
-      <c r="H13">
-        <v>126.901892366795</v>
-      </c>
-      <c r="I13">
-        <v>102.591219177752</v>
-      </c>
-      <c r="J13">
-        <v>28.8535705675876</v>
-      </c>
-      <c r="K13">
-        <v>95.000538529131305</v>
-      </c>
-      <c r="L13">
-        <v>0.25</v>
-      </c>
-      <c r="M13">
-        <v>0.75</v>
-      </c>
-      <c r="N13">
-        <v>0.25</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13" t="s">
-        <v>801</v>
-      </c>
-      <c r="S13" t="s">
-        <v>806</v>
-      </c>
-      <c r="T13" t="s">
-        <v>806</v>
-      </c>
-      <c r="U13" t="s">
-        <v>806</v>
-      </c>
-      <c r="V13" t="s">
-        <v>806</v>
-      </c>
-      <c r="W13" t="s">
-        <v>809</v>
-      </c>
-      <c r="X13" t="s">
-        <v>809</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>809</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>812</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>814</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>808</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>808</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>819</v>
-      </c>
-      <c r="AJ13">
-        <v>8.8571428571428577</v>
-      </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>819</v>
-      </c>
-      <c r="AM13">
-        <v>3.9047619047619051</v>
-      </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP13">
-        <v>6</v>
-      </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>827</v>
-      </c>
-      <c r="AS13">
-        <v>3</v>
-      </c>
-      <c r="AT13">
-        <v>3.19</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV13">
-        <v>20</v>
-      </c>
-      <c r="AX13">
-        <v>3155.05125</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>830</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>836</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>844</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>853</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>857</v>
-      </c>
-      <c r="BD13">
-        <v>30</v>
-      </c>
-      <c r="BE13">
-        <v>66</v>
-      </c>
-      <c r="BF13">
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="BG13">
-        <v>3.19</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI13">
-        <v>20</v>
-      </c>
-      <c r="BK13">
-        <v>3155.05125</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>830</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>836</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>844</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>853</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>857</v>
-      </c>
-      <c r="BQ13">
-        <v>30</v>
-      </c>
-      <c r="BR13">
-        <v>66</v>
-      </c>
-      <c r="BS13">
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="BT13">
-        <v>3.09</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV13">
-        <v>18</v>
-      </c>
-      <c r="BX13">
-        <v>3923.3024999999998</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>830</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>868</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>853</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>857</v>
-      </c>
-      <c r="CD13">
-        <v>200</v>
-      </c>
-      <c r="CE13">
-        <v>580</v>
-      </c>
-      <c r="CF13">
-        <v>11.6</v>
-      </c>
-      <c r="CG13">
-        <v>2.8</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI13">
-        <v>22</v>
-      </c>
-      <c r="CK13">
-        <v>310.28399999999999</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>828</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>841</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>853</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>857</v>
-      </c>
-      <c r="CQ13">
-        <v>10</v>
-      </c>
-      <c r="CR13">
-        <v>25</v>
-      </c>
-      <c r="CS13">
-        <v>10</v>
-      </c>
-      <c r="CT13">
-        <v>2.8</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV13">
-        <v>22</v>
-      </c>
-      <c r="CX13">
-        <v>155.142</v>
-      </c>
-      <c r="CY13" t="s">
-        <v>828</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA13" t="s">
-        <v>841</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>853</v>
-      </c>
-      <c r="DC13" t="s">
-        <v>857</v>
-      </c>
-      <c r="DD13">
-        <v>10</v>
-      </c>
-      <c r="DE13">
-        <v>25</v>
-      </c>
-      <c r="DF13">
-        <v>10</v>
-      </c>
-      <c r="DG13">
-        <v>2.8</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI13">
-        <v>22</v>
-      </c>
-      <c r="DK13">
-        <v>310.28399999999999</v>
-      </c>
-      <c r="DL13" t="s">
-        <v>828</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>836</v>
-      </c>
-      <c r="DN13" t="s">
-        <v>841</v>
-      </c>
-      <c r="DO13" t="s">
-        <v>853</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>857</v>
-      </c>
-      <c r="DQ13">
-        <v>10</v>
-      </c>
-      <c r="DR13">
-        <v>25</v>
-      </c>
-      <c r="DS13">
-        <v>10</v>
-      </c>
-      <c r="DT13">
-        <v>3.19</v>
-      </c>
-      <c r="DU13" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV13">
-        <v>14</v>
-      </c>
-      <c r="DW13">
-        <v>20</v>
-      </c>
-      <c r="DX13">
-        <v>223.76249999999999</v>
-      </c>
-      <c r="DY13" t="s">
-        <v>828</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>835</v>
-      </c>
-      <c r="EA13" t="s">
-        <v>846</v>
-      </c>
-      <c r="EB13" t="s">
-        <v>853</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>857</v>
-      </c>
-      <c r="ED13">
-        <v>1</v>
-      </c>
-      <c r="EE13">
-        <v>15</v>
-      </c>
-      <c r="EF13">
-        <v>150</v>
-      </c>
-      <c r="EG13">
-        <v>3.19</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>812</v>
-      </c>
-      <c r="EI13">
-        <v>20</v>
-      </c>
-      <c r="EK13">
-        <v>350.56124999999997</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>828</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>836</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>871</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>853</v>
-      </c>
-      <c r="EP13" t="s">
-        <v>857</v>
-      </c>
-      <c r="EQ13">
-        <v>2</v>
-      </c>
-      <c r="ER13">
-        <v>42</v>
-      </c>
-      <c r="ES13">
-        <v>210</v>
-      </c>
-      <c r="ET13">
-        <v>3.19</v>
-      </c>
-      <c r="EU13" t="s">
-        <v>812</v>
-      </c>
-      <c r="EV13">
-        <v>20</v>
-      </c>
-      <c r="EX13">
-        <v>350.56124999999997</v>
-      </c>
-      <c r="EY13" t="s">
-        <v>828</v>
-      </c>
-      <c r="EZ13" t="s">
-        <v>836</v>
-      </c>
-      <c r="FA13" t="s">
-        <v>871</v>
-      </c>
-      <c r="FB13" t="s">
-        <v>853</v>
-      </c>
-      <c r="FC13" t="s">
-        <v>857</v>
-      </c>
-      <c r="FD13">
-        <v>2</v>
-      </c>
-      <c r="FE13">
-        <v>42</v>
-      </c>
-      <c r="FF13">
-        <v>210</v>
-      </c>
-      <c r="FG13">
-        <v>7.37</v>
-      </c>
-      <c r="FH13" t="s">
-        <v>812</v>
-      </c>
-      <c r="FI13">
-        <v>18</v>
-      </c>
-      <c r="FK13">
-        <v>2685.15</v>
-      </c>
-      <c r="FL13" t="s">
-        <v>828</v>
-      </c>
-      <c r="FM13" t="s">
-        <v>836</v>
-      </c>
-      <c r="FN13" t="s">
-        <v>849</v>
-      </c>
-      <c r="FO13" t="s">
-        <v>853</v>
-      </c>
-      <c r="FP13" t="s">
-        <v>857</v>
-      </c>
-      <c r="FQ13">
-        <v>90</v>
-      </c>
-      <c r="FR13">
-        <v>1250</v>
-      </c>
-      <c r="FS13">
-        <v>27.777777777777779</v>
-      </c>
-      <c r="FT13">
-        <v>3</v>
-      </c>
-      <c r="FU13" t="s">
-        <v>813</v>
-      </c>
-      <c r="FX13">
-        <v>895.05</v>
-      </c>
-      <c r="FZ13" t="s">
-        <v>836</v>
-      </c>
-      <c r="GA13" t="s">
-        <v>846</v>
-      </c>
-      <c r="GB13" t="s">
-        <v>852</v>
-      </c>
-      <c r="GC13" t="s">
-        <v>857</v>
-      </c>
-      <c r="GD13">
-        <v>2</v>
-      </c>
-      <c r="GE13">
-        <v>130</v>
-      </c>
-      <c r="GF13">
-        <v>650</v>
-      </c>
-      <c r="ZT13" t="s">
-        <v>883</v>
-      </c>
-      <c r="ZU13">
-        <v>0.8</v>
-      </c>
-      <c r="ZV13" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW13" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX13" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY13">
-        <v>300</v>
-      </c>
-      <c r="ZZ13" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA13" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB13">
-        <v>1.9</v>
-      </c>
-      <c r="AAC13">
-        <v>8000</v>
-      </c>
-      <c r="AAD13" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAE13">
-        <v>0.8</v>
-      </c>
-      <c r="AAI13">
-        <v>0</v>
-      </c>
-      <c r="AAJ13" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK13" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL13">
-        <v>2</v>
-      </c>
-      <c r="AAM13">
-        <v>12600</v>
-      </c>
-      <c r="AAN13" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAO13">
-        <v>0.8</v>
-      </c>
-      <c r="AAS13">
-        <v>0</v>
-      </c>
-      <c r="AAW13">
-        <v>11000</v>
-      </c>
-      <c r="ABC13">
-        <v>0</v>
-      </c>
-      <c r="ABM13">
-        <v>0</v>
-      </c>
-      <c r="ABW13">
-        <v>0</v>
-      </c>
-      <c r="ACG13">
-        <v>0</v>
-      </c>
-      <c r="ACQ13">
-        <v>0</v>
-      </c>
-      <c r="ADA13">
-        <v>0</v>
-      </c>
-      <c r="ADK13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:795" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>916</v>
-      </c>
-      <c r="B14">
-        <v>76133</v>
-      </c>
-      <c r="C14">
-        <v>1936</v>
-      </c>
-      <c r="D14">
-        <v>807.9079999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>795</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>27.703030910921999</v>
-      </c>
-      <c r="I14">
-        <v>15.6849659313892</v>
-      </c>
-      <c r="J14">
-        <v>15.969765279647801</v>
-      </c>
-      <c r="K14">
-        <v>27.672554153117201</v>
-      </c>
-      <c r="L14">
-        <v>0.25</v>
-      </c>
-      <c r="M14">
-        <v>0.25</v>
-      </c>
-      <c r="N14">
-        <v>0.25</v>
-      </c>
-      <c r="O14">
-        <v>0.25</v>
-      </c>
-      <c r="P14">
-        <v>0.1062</v>
-      </c>
-      <c r="Q14">
-        <v>0.1062</v>
-      </c>
-      <c r="R14" t="s">
-        <v>802</v>
-      </c>
-      <c r="S14" t="s">
-        <v>807</v>
-      </c>
-      <c r="T14" t="s">
-        <v>807</v>
-      </c>
-      <c r="U14" t="s">
-        <v>807</v>
-      </c>
-      <c r="V14" t="s">
-        <v>807</v>
-      </c>
-      <c r="W14" t="s">
-        <v>811</v>
-      </c>
-      <c r="X14" t="s">
-        <v>811</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>811</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>811</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>813</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>813</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>816</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>816</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>816</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>819</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>811</v>
-      </c>
-      <c r="AM14">
-        <v>10</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>3.6</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV14">
-        <v>21</v>
-      </c>
-      <c r="AX14">
-        <v>518.83999999999992</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>836</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>843</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>853</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>857</v>
-      </c>
-      <c r="BD14">
-        <v>8</v>
-      </c>
-      <c r="BE14">
-        <v>93</v>
-      </c>
-      <c r="BF14">
-        <v>15.5</v>
-      </c>
-      <c r="BG14">
-        <v>2.81</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI14">
-        <v>20</v>
-      </c>
-      <c r="BK14">
-        <v>55.589999999999989</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>836</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>841</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>852</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>862</v>
-      </c>
-      <c r="BQ14">
-        <v>2</v>
-      </c>
-      <c r="BR14">
-        <v>10</v>
-      </c>
-      <c r="BS14">
-        <v>50</v>
-      </c>
-      <c r="BT14">
-        <v>3.64</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV14">
-        <v>18</v>
-      </c>
-      <c r="BX14">
-        <v>166.77</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>868</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC14" t="s">
-        <v>859</v>
-      </c>
-      <c r="CD14">
-        <v>5</v>
-      </c>
-      <c r="CE14">
-        <v>75</v>
-      </c>
-      <c r="CF14">
-        <v>150</v>
-      </c>
-      <c r="CG14">
-        <v>2.56</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI14">
-        <v>20</v>
-      </c>
-      <c r="CK14">
-        <v>66.707999999999998</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>848</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>852</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>857</v>
-      </c>
-      <c r="CQ14">
-        <v>3</v>
-      </c>
-      <c r="CR14">
-        <v>20</v>
-      </c>
-      <c r="CS14">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="CT14">
-        <v>2.6</v>
-      </c>
-      <c r="CU14" t="s">
-        <v>813</v>
-      </c>
-      <c r="CX14">
-        <v>266.83199999999999</v>
-      </c>
-      <c r="CZ14" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA14" t="s">
-        <v>846</v>
-      </c>
-      <c r="DB14" t="s">
-        <v>852</v>
-      </c>
-      <c r="DC14" t="s">
-        <v>857</v>
-      </c>
-      <c r="DD14">
-        <v>1</v>
-      </c>
-      <c r="DE14">
-        <v>60</v>
-      </c>
-      <c r="DF14">
-        <v>600</v>
-      </c>
-      <c r="ZV14" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW14" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX14" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY14">
-        <v>200</v>
-      </c>
-      <c r="AAI14">
-        <v>0</v>
-      </c>
-      <c r="AAS14">
-        <v>0</v>
-      </c>
-      <c r="ABC14">
-        <v>0</v>
-      </c>
-      <c r="ABM14">
-        <v>0</v>
-      </c>
-      <c r="ABW14">
-        <v>0</v>
-      </c>
-      <c r="ACG14">
-        <v>0</v>
-      </c>
-      <c r="ACQ14">
-        <v>0</v>
-      </c>
-      <c r="ADA14">
-        <v>0</v>
-      </c>
-      <c r="ADK14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:795" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>917</v>
-      </c>
-      <c r="B15">
-        <v>76133</v>
-      </c>
-      <c r="C15">
-        <v>1950</v>
-      </c>
-      <c r="D15">
-        <v>4196.28</v>
-      </c>
-      <c r="E15">
-        <v>0.9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>797</v>
-      </c>
-      <c r="G15">
-        <v>3.07</v>
-      </c>
-      <c r="H15">
-        <v>50.672592648178401</v>
-      </c>
-      <c r="I15">
-        <v>12.9910513194126</v>
-      </c>
-      <c r="J15">
-        <v>13.450252689274199</v>
-      </c>
-      <c r="K15">
-        <v>50.764029937524398</v>
-      </c>
-      <c r="L15" t="s">
-        <v>798</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>798</v>
-      </c>
-      <c r="P15">
-        <v>0.7200000000000002</v>
-      </c>
-      <c r="Q15">
-        <v>0.7200000000000002</v>
-      </c>
-      <c r="R15" t="s">
-        <v>802</v>
-      </c>
-      <c r="S15" t="s">
-        <v>806</v>
-      </c>
-      <c r="T15" t="s">
-        <v>808</v>
-      </c>
-      <c r="U15" t="s">
-        <v>808</v>
-      </c>
-      <c r="V15" t="s">
-        <v>806</v>
-      </c>
-      <c r="W15" t="s">
-        <v>809</v>
-      </c>
-      <c r="X15" t="s">
-        <v>808</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>808</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>808</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>808</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>812</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>816</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>808</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>808</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>816</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>822</v>
-      </c>
-      <c r="AJ15">
-        <v>12</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>819</v>
-      </c>
-      <c r="AM15">
-        <v>12</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS15">
-        <v>4</v>
-      </c>
-      <c r="AT15">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV15">
-        <v>21</v>
-      </c>
-      <c r="AW15">
-        <v>21</v>
-      </c>
-      <c r="AX15">
-        <v>1034.7645</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>838</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>843</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>853</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>859</v>
-      </c>
-      <c r="BD15">
-        <v>2</v>
-      </c>
-      <c r="BE15">
-        <v>20</v>
-      </c>
-      <c r="BF15">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="BG15">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI15">
-        <v>21</v>
-      </c>
-      <c r="BJ15">
-        <v>21</v>
-      </c>
-      <c r="BK15">
-        <v>1034.7645</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>838</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>843</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>853</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>859</v>
-      </c>
-      <c r="BQ15">
-        <v>2</v>
-      </c>
-      <c r="BR15">
-        <v>20</v>
-      </c>
-      <c r="BS15">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="BT15">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV15">
-        <v>21</v>
-      </c>
-      <c r="BW15">
-        <v>21</v>
-      </c>
-      <c r="BX15">
-        <v>505.46100000000001</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>838</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>866</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>860</v>
-      </c>
-      <c r="CD15">
-        <v>20</v>
-      </c>
-      <c r="CE15">
-        <v>40</v>
-      </c>
-      <c r="CF15">
-        <v>8</v>
-      </c>
-      <c r="CG15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI15">
-        <v>21</v>
-      </c>
-      <c r="CK15">
-        <v>236.04075</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>841</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>852</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>861</v>
-      </c>
-      <c r="CQ15">
-        <v>2</v>
-      </c>
-      <c r="CR15">
-        <v>4</v>
-      </c>
-      <c r="CS15">
-        <v>20</v>
-      </c>
-      <c r="CT15">
-        <v>9.5</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV15">
-        <v>21</v>
-      </c>
-      <c r="CX15">
-        <v>545.99324999999999</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>828</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>868</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>852</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>860</v>
-      </c>
-      <c r="DD15">
-        <v>50</v>
-      </c>
-      <c r="DE15">
-        <v>200</v>
-      </c>
-      <c r="DF15">
-        <v>16</v>
-      </c>
-      <c r="DG15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI15">
-        <v>21</v>
-      </c>
-      <c r="DK15">
-        <v>453.00749999999999</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>829</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>836</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>848</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>852</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>861</v>
-      </c>
-      <c r="DQ15">
-        <v>3</v>
-      </c>
-      <c r="DR15">
-        <v>30</v>
-      </c>
-      <c r="DS15">
-        <v>40</v>
-      </c>
-      <c r="DT15">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="DU15" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV15">
-        <v>20</v>
-      </c>
-      <c r="DX15">
-        <v>386.24849999999992</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>863</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>836</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>846</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>852</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>857</v>
-      </c>
-      <c r="ED15">
-        <v>1</v>
-      </c>
-      <c r="EE15">
-        <v>20</v>
-      </c>
-      <c r="EF15">
-        <v>200</v>
-      </c>
-      <c r="EG15">
-        <v>3.04</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>813</v>
-      </c>
-      <c r="EI15">
-        <v>20</v>
-      </c>
-      <c r="EK15">
-        <v>190.74</v>
-      </c>
-      <c r="EM15" t="s">
-        <v>836</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>846</v>
-      </c>
-      <c r="EO15" t="s">
-        <v>852</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>857</v>
-      </c>
-      <c r="EQ15">
-        <v>2</v>
-      </c>
-      <c r="ER15">
-        <v>60</v>
-      </c>
-      <c r="ES15">
-        <v>300</v>
-      </c>
-      <c r="ZT15" t="s">
-        <v>883</v>
-      </c>
-      <c r="ZU15">
-        <v>0.7</v>
-      </c>
-      <c r="ZV15" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW15" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX15" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY15">
-        <v>250</v>
-      </c>
-      <c r="ZZ15" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA15" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB15">
-        <v>97</v>
-      </c>
-      <c r="AAC15">
-        <v>5400</v>
-      </c>
-      <c r="AAI15">
-        <v>0</v>
-      </c>
-      <c r="AAJ15" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK15" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL15">
-        <v>4</v>
-      </c>
-      <c r="AAM15">
-        <v>5630</v>
-      </c>
-      <c r="AAN15" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAO15">
-        <v>0.7</v>
-      </c>
-      <c r="AAS15">
-        <v>0</v>
-      </c>
-      <c r="AAT15" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAU15" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAV15">
-        <v>4</v>
-      </c>
-      <c r="AAW15">
-        <v>2450</v>
-      </c>
-      <c r="ABC15">
-        <v>0</v>
-      </c>
-      <c r="ABG15">
-        <v>0</v>
-      </c>
-      <c r="ABM15">
-        <v>0</v>
-      </c>
-      <c r="ABW15">
-        <v>0</v>
-      </c>
-      <c r="ACG15">
-        <v>0</v>
-      </c>
-      <c r="ACQ15">
-        <v>0</v>
-      </c>
-      <c r="ADA15">
-        <v>0</v>
-      </c>
-      <c r="ADK15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:795" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>918</v>
-      </c>
-      <c r="B16">
-        <v>76133</v>
-      </c>
-      <c r="C16">
-        <v>1967</v>
-      </c>
-      <c r="D16">
-        <v>2007.44128</v>
-      </c>
-      <c r="E16">
-        <v>0.95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>796</v>
-      </c>
-      <c r="G16">
-        <v>3.5774999999999988</v>
-      </c>
-      <c r="H16">
-        <v>10.1762488295405</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>9.3971619013926198</v>
-      </c>
-      <c r="K16">
-        <v>12.784118954185001</v>
-      </c>
-      <c r="L16">
-        <v>0.25</v>
-      </c>
-      <c r="M16">
-        <v>0.25</v>
-      </c>
-      <c r="N16">
-        <v>0.25</v>
-      </c>
-      <c r="O16">
-        <v>0.5</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>801</v>
-      </c>
-      <c r="S16" t="s">
-        <v>805</v>
-      </c>
-      <c r="T16" t="s">
-        <v>806</v>
-      </c>
-      <c r="U16" t="s">
-        <v>806</v>
-      </c>
-      <c r="V16" t="s">
-        <v>805</v>
-      </c>
-      <c r="W16" t="s">
-        <v>810</v>
-      </c>
-      <c r="X16" t="s">
-        <v>810</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>810</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>810</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>813</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>816</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>808</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>808</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>819</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>819</v>
-      </c>
-      <c r="AM16">
-        <v>16</v>
-      </c>
-      <c r="AN16">
-        <v>0.8</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>3.65</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV16">
-        <v>20</v>
-      </c>
-      <c r="AW16">
-        <v>22</v>
-      </c>
-      <c r="AX16">
-        <v>1351.1623999999999</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>837</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>845</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>852</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>860</v>
-      </c>
-      <c r="BD16">
-        <v>20</v>
-      </c>
-      <c r="BE16">
-        <v>288</v>
-      </c>
-      <c r="BF16">
-        <v>57.6</v>
-      </c>
-      <c r="BG16">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI16">
-        <v>20</v>
-      </c>
-      <c r="BK16">
-        <v>160.20925600000001</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>836</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>843</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>853</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>858</v>
-      </c>
-      <c r="BQ16">
-        <v>2</v>
-      </c>
-      <c r="BR16">
-        <v>22</v>
-      </c>
-      <c r="BS16">
-        <v>22</v>
-      </c>
-      <c r="BT16">
-        <v>2.5</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV16">
-        <v>20</v>
-      </c>
-      <c r="BX16">
-        <v>20.267436</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>841</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>858</v>
-      </c>
-      <c r="CD16">
-        <v>1</v>
-      </c>
-      <c r="CE16">
-        <v>5</v>
-      </c>
-      <c r="CF16">
-        <v>50</v>
-      </c>
-      <c r="CG16">
-        <v>2.5</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI16">
-        <v>20</v>
-      </c>
-      <c r="CK16">
-        <v>11.581391999999999</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>848</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>853</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>858</v>
-      </c>
-      <c r="CQ16">
-        <v>2</v>
-      </c>
-      <c r="CR16">
-        <v>10</v>
-      </c>
-      <c r="CS16">
-        <v>20</v>
-      </c>
-      <c r="CT16">
-        <v>2.95</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV16">
-        <v>20</v>
-      </c>
-      <c r="CW16">
-        <v>22</v>
-      </c>
-      <c r="CX16">
-        <v>180.47669200000001</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>829</v>
-      </c>
-      <c r="CZ16" t="s">
-        <v>837</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>868</v>
-      </c>
-      <c r="DB16" t="s">
-        <v>852</v>
-      </c>
-      <c r="DC16" t="s">
-        <v>860</v>
-      </c>
-      <c r="DD16">
-        <v>5</v>
-      </c>
-      <c r="DE16">
-        <v>30</v>
-      </c>
-      <c r="DF16">
-        <v>60</v>
-      </c>
-      <c r="DG16">
-        <v>2.5</v>
-      </c>
-      <c r="DH16" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI16">
-        <v>20</v>
-      </c>
-      <c r="DJ16">
-        <v>20</v>
-      </c>
-      <c r="DK16">
-        <v>135.11624</v>
-      </c>
-      <c r="DL16" t="s">
-        <v>829</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>835</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>846</v>
-      </c>
-      <c r="DO16" t="s">
-        <v>853</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>858</v>
-      </c>
-      <c r="DQ16">
-        <v>1</v>
-      </c>
-      <c r="DR16">
-        <v>12</v>
-      </c>
-      <c r="DS16">
-        <v>120</v>
-      </c>
-      <c r="DT16">
-        <v>2.5</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV16">
-        <v>20</v>
-      </c>
-      <c r="DX16">
-        <v>148.62786399999999</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>829</v>
-      </c>
-      <c r="DZ16" t="s">
-        <v>836</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>842</v>
-      </c>
-      <c r="EB16" t="s">
-        <v>853</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>858</v>
-      </c>
-      <c r="ED16">
-        <v>1</v>
-      </c>
-      <c r="EE16">
-        <v>16</v>
-      </c>
-      <c r="EF16">
-        <v>21.333333333333329</v>
-      </c>
-      <c r="ZV16" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW16" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX16" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY16">
-        <v>250.8</v>
-      </c>
-      <c r="ZZ16" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA16" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB16">
-        <v>5</v>
-      </c>
-      <c r="AAI16">
-        <v>0</v>
-      </c>
-      <c r="AAJ16" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK16" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL16">
-        <v>32</v>
-      </c>
-      <c r="AAS16">
-        <v>0</v>
-      </c>
-      <c r="AAT16" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAU16" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAV16">
-        <v>32</v>
-      </c>
-      <c r="ABC16">
-        <v>0</v>
-      </c>
-      <c r="ABM16">
-        <v>0</v>
-      </c>
-      <c r="ABW16">
-        <v>0</v>
-      </c>
-      <c r="ACG16">
-        <v>0</v>
-      </c>
-      <c r="ACQ16">
-        <v>0</v>
-      </c>
-      <c r="ADA16">
-        <v>0</v>
-      </c>
-      <c r="ADK16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:794" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>919</v>
-      </c>
-      <c r="B17">
-        <v>76133</v>
-      </c>
-      <c r="C17">
-        <v>1810</v>
-      </c>
-      <c r="D17">
-        <v>7207.6600000000017</v>
-      </c>
-      <c r="E17">
-        <v>0.75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>797</v>
-      </c>
-      <c r="G17">
-        <v>3.28</v>
-      </c>
-      <c r="H17">
-        <v>122.537554541042</v>
-      </c>
-      <c r="I17">
-        <v>134.77103316067101</v>
-      </c>
-      <c r="J17">
-        <v>95.3951156041865</v>
-      </c>
-      <c r="K17">
-        <v>121.07887335290501</v>
-      </c>
-      <c r="L17" t="s">
-        <v>798</v>
-      </c>
-      <c r="M17" t="s">
-        <v>798</v>
-      </c>
-      <c r="N17" t="s">
-        <v>798</v>
-      </c>
-      <c r="O17" t="s">
-        <v>798</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>802</v>
-      </c>
-      <c r="S17" t="s">
-        <v>806</v>
-      </c>
-      <c r="T17" t="s">
-        <v>806</v>
-      </c>
-      <c r="U17" t="s">
-        <v>806</v>
-      </c>
-      <c r="V17" t="s">
-        <v>806</v>
-      </c>
-      <c r="W17" t="s">
-        <v>811</v>
-      </c>
-      <c r="X17" t="s">
-        <v>811</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>811</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>811</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>813</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>813</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>816</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>816</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>816</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>819</v>
-      </c>
-      <c r="AJ17">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="AK17">
-        <v>0.3</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>811</v>
-      </c>
-      <c r="AM17">
-        <v>13</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS17">
-        <v>3</v>
-      </c>
-      <c r="AT17">
-        <v>2.5</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV17">
-        <v>20</v>
-      </c>
-      <c r="AX17">
-        <v>3603.83</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>836</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>843</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>853</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>857</v>
-      </c>
-      <c r="BD17">
-        <v>2</v>
-      </c>
-      <c r="BE17">
-        <v>19</v>
-      </c>
-      <c r="BF17">
-        <v>12.66666666666667</v>
-      </c>
-      <c r="BG17">
-        <v>2.86</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI17">
-        <v>20</v>
-      </c>
-      <c r="BJ17">
-        <v>22</v>
-      </c>
-      <c r="BK17">
-        <v>699.56700000000012</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>864</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>866</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>853</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>855</v>
-      </c>
-      <c r="BQ17">
-        <v>30</v>
-      </c>
-      <c r="BR17">
-        <v>80</v>
-      </c>
-      <c r="BS17">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="BT17">
-        <v>2.86</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV17">
-        <v>20</v>
-      </c>
-      <c r="BW17">
-        <v>22</v>
-      </c>
-      <c r="BX17">
-        <v>233.18899999999999</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>864</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>866</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>853</v>
-      </c>
-      <c r="CC17" t="s">
-        <v>855</v>
-      </c>
-      <c r="CD17">
-        <v>30</v>
-      </c>
-      <c r="CE17">
-        <v>80</v>
-      </c>
-      <c r="CF17">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="CG17">
-        <v>2.86</v>
-      </c>
-      <c r="CH17" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI17">
-        <v>20</v>
-      </c>
-      <c r="CJ17">
-        <v>22</v>
-      </c>
-      <c r="CK17">
-        <v>233.18899999999999</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>864</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>866</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>853</v>
-      </c>
-      <c r="CP17" t="s">
-        <v>855</v>
-      </c>
-      <c r="CQ17">
-        <v>30</v>
-      </c>
-      <c r="CR17">
-        <v>80</v>
-      </c>
-      <c r="CS17">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="CT17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CU17" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV17">
-        <v>20</v>
-      </c>
-      <c r="CX17">
-        <v>360.38299999999998</v>
-      </c>
-      <c r="CY17" t="s">
-        <v>829</v>
-      </c>
-      <c r="CZ17" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA17" t="s">
-        <v>841</v>
-      </c>
-      <c r="DB17" t="s">
-        <v>852</v>
-      </c>
-      <c r="DC17" t="s">
-        <v>855</v>
-      </c>
-      <c r="DD17">
-        <v>3</v>
-      </c>
-      <c r="DE17">
-        <v>12</v>
-      </c>
-      <c r="DF17">
-        <v>39.999999999999993</v>
-      </c>
-      <c r="DG17">
-        <v>2.86</v>
-      </c>
-      <c r="DH17" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI17">
-        <v>18</v>
-      </c>
-      <c r="DK17">
-        <v>1293.1389999999999</v>
-      </c>
-      <c r="DL17" t="s">
-        <v>832</v>
-      </c>
-      <c r="DM17" t="s">
-        <v>836</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>868</v>
-      </c>
-      <c r="DO17" t="s">
-        <v>852</v>
-      </c>
-      <c r="DP17" t="s">
-        <v>855</v>
-      </c>
-      <c r="DQ17">
-        <v>10</v>
-      </c>
-      <c r="DR17">
-        <v>50</v>
-      </c>
-      <c r="DS17">
-        <v>50</v>
-      </c>
-      <c r="DT17">
-        <v>2.8</v>
-      </c>
-      <c r="DU17" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV17">
-        <v>20</v>
-      </c>
-      <c r="DX17">
-        <v>254.38800000000001</v>
-      </c>
-      <c r="DY17" t="s">
-        <v>829</v>
-      </c>
-      <c r="DZ17" t="s">
-        <v>836</v>
-      </c>
-      <c r="EA17" t="s">
-        <v>871</v>
-      </c>
-      <c r="EB17" t="s">
-        <v>853</v>
-      </c>
-      <c r="EC17" t="s">
-        <v>857</v>
-      </c>
-      <c r="ED17">
-        <v>8</v>
-      </c>
-      <c r="EE17">
-        <v>35</v>
-      </c>
-      <c r="EF17">
-        <v>43.75</v>
-      </c>
-      <c r="EG17">
-        <v>4</v>
-      </c>
-      <c r="EH17" t="s">
-        <v>812</v>
-      </c>
-      <c r="EI17">
-        <v>20</v>
-      </c>
-      <c r="EJ17">
-        <v>22</v>
-      </c>
-      <c r="EK17">
-        <v>529.97500000000002</v>
-      </c>
-      <c r="EL17" t="s">
-        <v>829</v>
-      </c>
-      <c r="EM17" t="s">
-        <v>835</v>
-      </c>
-      <c r="EN17" t="s">
-        <v>846</v>
-      </c>
-      <c r="EO17" t="s">
-        <v>853</v>
-      </c>
-      <c r="EP17" t="s">
-        <v>857</v>
-      </c>
-      <c r="EQ17">
-        <v>6</v>
-      </c>
-      <c r="ER17">
-        <v>140</v>
-      </c>
-      <c r="ES17">
-        <v>31.111111111111111</v>
-      </c>
-      <c r="ET17">
-        <v>2.63</v>
-      </c>
-      <c r="EU17" t="s">
-        <v>813</v>
-      </c>
-      <c r="EX17">
-        <v>2649.875</v>
-      </c>
-      <c r="EZ17" t="s">
-        <v>836</v>
-      </c>
-      <c r="FA17" t="s">
-        <v>846</v>
-      </c>
-      <c r="FB17" t="s">
-        <v>852</v>
-      </c>
-      <c r="FC17" t="s">
-        <v>857</v>
-      </c>
-      <c r="FD17">
-        <v>1</v>
-      </c>
-      <c r="FE17">
-        <v>20</v>
-      </c>
-      <c r="FF17">
-        <v>200</v>
-      </c>
-      <c r="ZT17" t="s">
-        <v>883</v>
-      </c>
-      <c r="ZU17">
-        <v>0.9</v>
-      </c>
-      <c r="ZV17" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW17" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX17" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY17">
-        <v>300</v>
-      </c>
-      <c r="ZZ17" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA17" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB17">
-        <v>40</v>
-      </c>
-      <c r="AAC17">
-        <v>18000</v>
-      </c>
-      <c r="AAD17" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAE17">
-        <v>0.7</v>
-      </c>
-      <c r="AAI17">
-        <v>0</v>
-      </c>
-      <c r="AAJ17" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK17" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL17">
-        <v>10</v>
-      </c>
-      <c r="AAM17">
-        <v>1500</v>
-      </c>
-      <c r="AAN17" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAO17">
-        <v>0.9</v>
-      </c>
-      <c r="AAS17">
-        <v>0</v>
-      </c>
-      <c r="AAT17" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAU17" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAV17">
-        <v>3</v>
-      </c>
-      <c r="AAW17">
-        <v>3800</v>
-      </c>
-      <c r="ABC17">
-        <v>0</v>
-      </c>
-      <c r="ABD17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABE17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABF17">
-        <v>18</v>
-      </c>
-      <c r="ABM17">
-        <v>0</v>
-      </c>
-      <c r="ABN17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABO17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABP17">
-        <v>2</v>
-      </c>
-      <c r="ABW17">
-        <v>0</v>
-      </c>
-      <c r="ABX17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABY17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABZ17">
-        <v>2</v>
-      </c>
-      <c r="ACG17">
-        <v>0</v>
-      </c>
-      <c r="ACH17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ACI17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ACJ17">
-        <v>2</v>
-      </c>
-      <c r="ACQ17">
-        <v>0</v>
-      </c>
-      <c r="ACR17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ACS17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ACT17">
-        <v>2</v>
-      </c>
-      <c r="ADA17">
-        <v>0</v>
-      </c>
-      <c r="ADB17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ADC17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ADD17">
-        <v>2</v>
-      </c>
-      <c r="ADK17">
-        <v>0</v>
-      </c>
-      <c r="ADL17" t="s">
-        <v>898</v>
-      </c>
-      <c r="ADM17" t="s">
-        <v>899</v>
-      </c>
-      <c r="ADN17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:794" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>920</v>
-      </c>
-      <c r="B18">
-        <v>76133</v>
-      </c>
-      <c r="C18">
-        <v>1983</v>
-      </c>
-      <c r="D18">
-        <v>19990.80000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>797</v>
-      </c>
-      <c r="G18">
-        <v>4.2875000000000014</v>
-      </c>
-      <c r="H18">
-        <v>43.223642741257002</v>
-      </c>
-      <c r="I18">
-        <v>54.688936757846697</v>
-      </c>
-      <c r="J18">
-        <v>49.594211126171103</v>
-      </c>
-      <c r="K18">
-        <v>42.899693461167203</v>
-      </c>
-      <c r="L18">
-        <v>0.25</v>
-      </c>
-      <c r="M18">
-        <v>0.25</v>
-      </c>
-      <c r="N18">
-        <v>0.25</v>
-      </c>
-      <c r="O18">
-        <v>0.25</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>801</v>
-      </c>
-      <c r="S18" t="s">
-        <v>805</v>
-      </c>
-      <c r="T18" t="s">
-        <v>805</v>
-      </c>
-      <c r="U18" t="s">
-        <v>805</v>
-      </c>
-      <c r="V18" t="s">
-        <v>805</v>
-      </c>
-      <c r="W18" t="s">
-        <v>809</v>
-      </c>
-      <c r="X18" t="s">
-        <v>809</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>809</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>813</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>813</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>813</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>818</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>818</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>818</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>808</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>823</v>
-      </c>
-      <c r="AJ18">
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>819</v>
-      </c>
-      <c r="AM18">
-        <v>5.9047619047619051</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS18">
-        <v>5</v>
-      </c>
-      <c r="AT18">
-        <v>2.9</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV18">
-        <v>20</v>
-      </c>
-      <c r="AX18">
-        <v>4997.7000000000007</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>835</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>844</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>853</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>857</v>
-      </c>
-      <c r="BD18">
-        <v>32</v>
-      </c>
-      <c r="BE18">
-        <v>76</v>
-      </c>
-      <c r="BF18">
-        <v>3.166666666666667</v>
-      </c>
-      <c r="BG18">
-        <v>2.9</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI18">
-        <v>20</v>
-      </c>
-      <c r="BK18">
-        <v>4997.7000000000007</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>836</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>844</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>853</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>857</v>
-      </c>
-      <c r="BQ18">
-        <v>32</v>
-      </c>
-      <c r="BR18">
-        <v>76</v>
-      </c>
-      <c r="BS18">
-        <v>3.166666666666667</v>
-      </c>
-      <c r="BT18">
-        <v>2.62</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV18">
-        <v>20</v>
-      </c>
-      <c r="BX18">
-        <v>999.54000000000008</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>841</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC18" t="s">
-        <v>857</v>
-      </c>
-      <c r="CD18">
-        <v>2</v>
-      </c>
-      <c r="CE18">
-        <v>6</v>
-      </c>
-      <c r="CF18">
-        <v>30</v>
-      </c>
-      <c r="CG18">
-        <v>4</v>
-      </c>
-      <c r="CH18" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI18">
-        <v>18</v>
-      </c>
-      <c r="CK18">
-        <v>3998.16</v>
-      </c>
-      <c r="CL18" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>868</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>852</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>857</v>
-      </c>
-      <c r="CQ18">
-        <v>20</v>
-      </c>
-      <c r="CR18">
-        <v>135</v>
-      </c>
-      <c r="CS18">
-        <v>67.5</v>
-      </c>
-      <c r="CT18">
-        <v>6.78</v>
-      </c>
-      <c r="CU18" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV18">
-        <v>18</v>
-      </c>
-      <c r="CX18">
-        <v>639.70560000000023</v>
-      </c>
-      <c r="CY18" t="s">
-        <v>833</v>
-      </c>
-      <c r="CZ18" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA18" t="s">
-        <v>849</v>
-      </c>
-      <c r="DB18" t="s">
-        <v>853</v>
-      </c>
-      <c r="DC18" t="s">
-        <v>857</v>
-      </c>
-      <c r="DD18">
-        <v>60</v>
-      </c>
-      <c r="DE18">
-        <v>500</v>
-      </c>
-      <c r="DF18">
-        <v>16.666666666666671</v>
-      </c>
-      <c r="DG18">
-        <v>6.78</v>
-      </c>
-      <c r="DH18" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI18">
-        <v>18</v>
-      </c>
-      <c r="DK18">
-        <v>159.92640000000009</v>
-      </c>
-      <c r="DL18" t="s">
-        <v>833</v>
-      </c>
-      <c r="DM18" t="s">
-        <v>836</v>
-      </c>
-      <c r="DN18" t="s">
-        <v>849</v>
-      </c>
-      <c r="DO18" t="s">
-        <v>853</v>
-      </c>
-      <c r="DP18" t="s">
-        <v>857</v>
-      </c>
-      <c r="DQ18">
-        <v>60</v>
-      </c>
-      <c r="DR18">
-        <v>500</v>
-      </c>
-      <c r="DS18">
-        <v>16.666666666666671</v>
-      </c>
-      <c r="DT18">
-        <v>4</v>
-      </c>
-      <c r="DU18" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV18">
-        <v>19</v>
-      </c>
-      <c r="DX18">
-        <v>648.59040000000016</v>
-      </c>
-      <c r="DY18" t="s">
-        <v>829</v>
-      </c>
-      <c r="DZ18" t="s">
-        <v>836</v>
-      </c>
-      <c r="EA18" t="s">
-        <v>846</v>
-      </c>
-      <c r="EB18" t="s">
-        <v>853</v>
-      </c>
-      <c r="EC18" t="s">
-        <v>857</v>
-      </c>
-      <c r="ED18">
-        <v>15</v>
-      </c>
-      <c r="EE18">
-        <v>180</v>
-      </c>
-      <c r="EF18">
-        <v>24</v>
-      </c>
-      <c r="EG18">
-        <v>4</v>
-      </c>
-      <c r="EH18" t="s">
-        <v>812</v>
-      </c>
-      <c r="EI18">
-        <v>19</v>
-      </c>
-      <c r="EK18">
-        <v>324.29520000000008</v>
-      </c>
-      <c r="EL18" t="s">
-        <v>829</v>
-      </c>
-      <c r="EM18" t="s">
-        <v>836</v>
-      </c>
-      <c r="EN18" t="s">
-        <v>846</v>
-      </c>
-      <c r="EO18" t="s">
-        <v>853</v>
-      </c>
-      <c r="EP18" t="s">
-        <v>857</v>
-      </c>
-      <c r="EQ18">
-        <v>15</v>
-      </c>
-      <c r="ER18">
-        <v>180</v>
-      </c>
-      <c r="ES18">
-        <v>24</v>
-      </c>
-      <c r="ET18">
-        <v>4</v>
-      </c>
-      <c r="EU18" t="s">
-        <v>812</v>
-      </c>
-      <c r="EV18">
-        <v>19</v>
-      </c>
-      <c r="EX18">
-        <v>648.59040000000016</v>
-      </c>
-      <c r="EY18" t="s">
-        <v>829</v>
-      </c>
-      <c r="EZ18" t="s">
-        <v>836</v>
-      </c>
-      <c r="FA18" t="s">
-        <v>846</v>
-      </c>
-      <c r="FB18" t="s">
-        <v>853</v>
-      </c>
-      <c r="FC18" t="s">
-        <v>857</v>
-      </c>
-      <c r="FD18">
-        <v>15</v>
-      </c>
-      <c r="FE18">
-        <v>180</v>
-      </c>
-      <c r="FF18">
-        <v>24</v>
-      </c>
-      <c r="FG18">
-        <v>2.54</v>
-      </c>
-      <c r="FH18" t="s">
-        <v>812</v>
-      </c>
-      <c r="FI18">
-        <v>20</v>
-      </c>
-      <c r="FK18">
-        <v>710.78400000000011</v>
-      </c>
-      <c r="FL18" t="s">
-        <v>829</v>
-      </c>
-      <c r="FM18" t="s">
-        <v>836</v>
-      </c>
-      <c r="FN18" t="s">
-        <v>843</v>
-      </c>
-      <c r="FO18" t="s">
-        <v>853</v>
-      </c>
-      <c r="FP18" t="s">
-        <v>857</v>
-      </c>
-      <c r="FQ18">
-        <v>2</v>
-      </c>
-      <c r="FR18">
-        <v>22</v>
-      </c>
-      <c r="FS18">
-        <v>22</v>
-      </c>
-      <c r="FT18">
-        <v>3</v>
-      </c>
-      <c r="FU18" t="s">
-        <v>812</v>
-      </c>
-      <c r="FV18">
-        <v>20</v>
-      </c>
-      <c r="FX18">
-        <v>1865.808</v>
-      </c>
-      <c r="FY18" t="s">
-        <v>829</v>
-      </c>
-      <c r="FZ18" t="s">
-        <v>836</v>
-      </c>
-      <c r="GA18" t="s">
-        <v>848</v>
-      </c>
-      <c r="GB18" t="s">
-        <v>852</v>
-      </c>
-      <c r="GC18" t="s">
-        <v>862</v>
-      </c>
-      <c r="GD18">
-        <v>40</v>
-      </c>
-      <c r="GE18">
-        <v>230</v>
-      </c>
-      <c r="GF18">
-        <v>23</v>
-      </c>
-      <c r="GG18">
-        <v>3.18</v>
-      </c>
-      <c r="GH18" t="s">
-        <v>813</v>
-      </c>
-      <c r="GK18">
-        <v>3776.04</v>
-      </c>
-      <c r="GM18" t="s">
-        <v>836</v>
-      </c>
-      <c r="GN18" t="s">
-        <v>846</v>
-      </c>
-      <c r="GO18" t="s">
-        <v>852</v>
-      </c>
-      <c r="GP18" t="s">
-        <v>857</v>
-      </c>
-      <c r="GQ18">
-        <v>3</v>
-      </c>
-      <c r="GR18">
-        <v>400</v>
-      </c>
-      <c r="GS18">
-        <v>1333.333333333333</v>
-      </c>
-      <c r="ZT18" t="s">
-        <v>883</v>
-      </c>
-      <c r="ZU18">
-        <v>0.8</v>
-      </c>
-      <c r="ZV18" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW18" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX18" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY18">
-        <v>1500</v>
-      </c>
-      <c r="ZZ18" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA18" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB18">
-        <v>6</v>
-      </c>
-      <c r="AAC18">
-        <v>31000</v>
-      </c>
-      <c r="AAD18" t="s">
-        <v>882</v>
-      </c>
-      <c r="AAE18">
-        <v>0</v>
-      </c>
-      <c r="AAI18">
-        <v>0</v>
-      </c>
-      <c r="AAJ18" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK18" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL18">
-        <v>5</v>
-      </c>
-      <c r="AAM18">
-        <v>0</v>
-      </c>
-      <c r="AAN18" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAO18">
-        <v>0.8</v>
-      </c>
-      <c r="AAS18">
-        <v>0</v>
-      </c>
-      <c r="AAT18" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAU18" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAV18">
-        <v>12</v>
-      </c>
-      <c r="AAW18">
-        <v>31000</v>
-      </c>
-      <c r="AAX18" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAY18">
-        <v>0.8</v>
-      </c>
-      <c r="ABC18">
-        <v>0</v>
-      </c>
-      <c r="ABG18">
-        <v>8200</v>
-      </c>
-      <c r="ABH18" t="s">
-        <v>882</v>
-      </c>
-      <c r="ABI18">
-        <v>0</v>
-      </c>
-      <c r="ABM18">
-        <v>0</v>
-      </c>
-      <c r="ABQ18">
-        <v>0</v>
-      </c>
-      <c r="ABW18">
-        <v>0</v>
-      </c>
-      <c r="ACG18">
-        <v>0</v>
-      </c>
-      <c r="ACQ18">
-        <v>0</v>
-      </c>
-      <c r="ADA18">
-        <v>0</v>
-      </c>
-      <c r="ADK18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:794" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>921</v>
-      </c>
-      <c r="B19">
-        <v>76133</v>
-      </c>
-      <c r="C19">
-        <v>1873</v>
-      </c>
-      <c r="D19">
-        <v>2076.75</v>
-      </c>
-      <c r="E19">
-        <v>0.9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>795</v>
-      </c>
-      <c r="G19">
-        <v>5.8025000000000002</v>
-      </c>
-      <c r="H19">
-        <v>23.839810732919201</v>
-      </c>
-      <c r="I19">
-        <v>18.673934486498499</v>
-      </c>
-      <c r="J19">
-        <v>15.6352168889334</v>
-      </c>
-      <c r="K19">
-        <v>23.830517953882602</v>
-      </c>
-      <c r="L19">
-        <v>0.5</v>
-      </c>
-      <c r="M19">
-        <v>0.25</v>
-      </c>
-      <c r="N19">
-        <v>0.25</v>
-      </c>
-      <c r="O19">
-        <v>0.5</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>803</v>
-      </c>
-      <c r="S19" t="s">
-        <v>807</v>
-      </c>
-      <c r="T19" t="s">
-        <v>807</v>
-      </c>
-      <c r="U19" t="s">
-        <v>807</v>
-      </c>
-      <c r="V19" t="s">
-        <v>807</v>
-      </c>
-      <c r="W19" t="s">
-        <v>811</v>
-      </c>
-      <c r="X19" t="s">
-        <v>811</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>811</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>811</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>813</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>813</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>813</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>816</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>816</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>808</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>819</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>811</v>
-      </c>
-      <c r="AM19">
-        <v>12</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS19">
-        <v>1</v>
-      </c>
-      <c r="AT19">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV19">
-        <v>18</v>
-      </c>
-      <c r="AX19">
-        <v>355.38749999999999</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>836</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>846</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>852</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>857</v>
-      </c>
-      <c r="BD19">
-        <v>2</v>
-      </c>
-      <c r="BE19">
-        <v>75</v>
-      </c>
-      <c r="BF19">
-        <v>150</v>
-      </c>
-      <c r="BG19">
-        <v>2.73</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI19">
-        <v>18</v>
-      </c>
-      <c r="BJ19">
-        <v>18</v>
-      </c>
-      <c r="BK19">
-        <v>717.35625000000005</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>864</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>869</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>853</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>857</v>
-      </c>
-      <c r="BQ19">
-        <v>2</v>
-      </c>
-      <c r="BR19">
-        <v>127</v>
-      </c>
-      <c r="BS19">
-        <v>254</v>
-      </c>
-      <c r="BT19">
-        <v>2.35</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV19">
-        <v>18</v>
-      </c>
-      <c r="BX19">
-        <v>278.60624999999999</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>868</v>
-      </c>
-      <c r="CB19" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC19" t="s">
-        <v>857</v>
-      </c>
-      <c r="CD19">
-        <v>2</v>
-      </c>
-      <c r="CE19">
-        <v>15</v>
-      </c>
-      <c r="CF19">
-        <v>75</v>
-      </c>
-      <c r="CG19">
-        <v>2.73</v>
-      </c>
-      <c r="CH19" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI19">
-        <v>20</v>
-      </c>
-      <c r="CK19">
-        <v>416.8125</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>828</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN19" t="s">
-        <v>843</v>
-      </c>
-      <c r="CO19" t="s">
-        <v>852</v>
-      </c>
-      <c r="CP19" t="s">
-        <v>855</v>
-      </c>
-      <c r="CQ19">
-        <v>2</v>
-      </c>
-      <c r="CR19">
-        <v>15</v>
-      </c>
-      <c r="CS19">
-        <v>10</v>
-      </c>
-      <c r="CT19">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="CU19" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV19">
-        <v>20</v>
-      </c>
-      <c r="CX19">
-        <v>190.125</v>
-      </c>
-      <c r="CY19" t="s">
-        <v>829</v>
-      </c>
-      <c r="CZ19" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA19" t="s">
-        <v>867</v>
-      </c>
-      <c r="DB19" t="s">
-        <v>853</v>
-      </c>
-      <c r="DC19" t="s">
-        <v>857</v>
-      </c>
-      <c r="DD19">
-        <v>8</v>
-      </c>
-      <c r="DE19">
-        <v>85</v>
-      </c>
-      <c r="DF19">
-        <v>21.25</v>
-      </c>
-      <c r="DG19">
-        <v>2.13</v>
-      </c>
-      <c r="DH19" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI19">
-        <v>20</v>
-      </c>
-      <c r="DK19">
-        <v>89.212500000000006</v>
-      </c>
-      <c r="DL19" t="s">
-        <v>829</v>
-      </c>
-      <c r="DM19" t="s">
-        <v>836</v>
-      </c>
-      <c r="DN19" t="s">
-        <v>841</v>
-      </c>
-      <c r="DO19" t="s">
-        <v>852</v>
-      </c>
-      <c r="DP19" t="s">
-        <v>862</v>
-      </c>
-      <c r="DQ19">
-        <v>1</v>
-      </c>
-      <c r="DR19">
-        <v>3.5</v>
-      </c>
-      <c r="DS19">
-        <v>35</v>
-      </c>
-      <c r="DT19">
-        <v>2.98</v>
-      </c>
-      <c r="DU19" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV19">
-        <v>20</v>
-      </c>
-      <c r="DX19">
-        <v>29.25</v>
-      </c>
-      <c r="DY19" t="s">
-        <v>829</v>
-      </c>
-      <c r="DZ19" t="s">
-        <v>836</v>
-      </c>
-      <c r="EA19" t="s">
-        <v>848</v>
-      </c>
-      <c r="EB19" t="s">
-        <v>852</v>
-      </c>
-      <c r="EC19" t="s">
-        <v>857</v>
-      </c>
-      <c r="ED19">
-        <v>3</v>
-      </c>
-      <c r="EE19">
-        <v>15</v>
-      </c>
-      <c r="EF19">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="ZT19" t="s">
-        <v>883</v>
-      </c>
-      <c r="ZU19">
-        <v>0.8</v>
-      </c>
-      <c r="ZV19" t="s">
-        <v>884</v>
-      </c>
-      <c r="ZW19" t="s">
-        <v>889</v>
-      </c>
-      <c r="ZX19" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY19">
-        <v>120</v>
-      </c>
-      <c r="ZZ19" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA19" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB19">
-        <v>14</v>
-      </c>
-      <c r="AAC19">
-        <v>2300</v>
-      </c>
-      <c r="AAI19">
-        <v>0</v>
-      </c>
-      <c r="AAJ19" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK19" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL19">
-        <v>14</v>
-      </c>
-      <c r="AAS19">
-        <v>0</v>
-      </c>
-      <c r="AAT19" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAU19" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAV19">
-        <v>3</v>
-      </c>
-      <c r="ABC19">
-        <v>0</v>
-      </c>
-      <c r="ABD19" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABE19" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABF19">
-        <v>3</v>
-      </c>
-      <c r="ABM19">
-        <v>0</v>
-      </c>
-      <c r="ABN19" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABO19" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABP19">
-        <v>2</v>
-      </c>
-      <c r="ABW19">
-        <v>0</v>
-      </c>
-      <c r="ACG19">
-        <v>0</v>
-      </c>
-      <c r="ACQ19">
-        <v>0</v>
-      </c>
-      <c r="ADA19">
-        <v>0</v>
-      </c>
-      <c r="ADK19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:794" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>922</v>
-      </c>
-      <c r="B20">
-        <v>76646</v>
-      </c>
-      <c r="C20">
-        <v>1972</v>
-      </c>
-      <c r="D20">
-        <v>812.69999999999993</v>
-      </c>
-      <c r="E20">
-        <v>0.85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>797</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>13.484684142211901</v>
-      </c>
-      <c r="I20">
-        <v>7.8576512860126897</v>
-      </c>
-      <c r="J20">
-        <v>28.247490823099898</v>
-      </c>
-      <c r="K20">
-        <v>13.4992810545177</v>
-      </c>
-      <c r="L20" t="s">
-        <v>798</v>
-      </c>
-      <c r="M20" t="s">
-        <v>798</v>
-      </c>
-      <c r="N20" t="s">
-        <v>798</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0.375</v>
-      </c>
-      <c r="Q20">
-        <v>0.375</v>
-      </c>
-      <c r="R20" t="s">
-        <v>801</v>
-      </c>
-      <c r="S20" t="s">
-        <v>806</v>
-      </c>
-      <c r="T20" t="s">
-        <v>806</v>
-      </c>
-      <c r="U20" t="s">
-        <v>805</v>
-      </c>
-      <c r="V20" t="s">
-        <v>806</v>
-      </c>
-      <c r="W20" t="s">
-        <v>810</v>
-      </c>
-      <c r="X20" t="s">
-        <v>810</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>810</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>810</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>812</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>816</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>816</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>816</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>819</v>
-      </c>
-      <c r="AJ20">
-        <v>8.8571428571428577</v>
-      </c>
-      <c r="AK20">
-        <v>1</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>819</v>
-      </c>
-      <c r="AM20">
-        <v>11.238095238095241</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>2.6</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV20">
-        <v>21</v>
-      </c>
-      <c r="AW20">
-        <v>21</v>
-      </c>
-      <c r="AX20">
-        <v>185.76</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>835</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>843</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>853</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>855</v>
-      </c>
-      <c r="BD20">
-        <v>6</v>
-      </c>
-      <c r="BE20">
-        <v>60</v>
-      </c>
-      <c r="BF20">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="BG20">
-        <v>2.8</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI20">
-        <v>18</v>
-      </c>
-      <c r="BK20">
-        <v>116.1</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>836</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>868</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>852</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>860</v>
-      </c>
-      <c r="BQ20">
-        <v>5</v>
-      </c>
-      <c r="BR20">
-        <v>30</v>
-      </c>
-      <c r="BS20">
-        <v>60</v>
-      </c>
-      <c r="BT20">
-        <v>2.6</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV20">
-        <v>20</v>
-      </c>
-      <c r="BX20">
-        <v>92.88</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ20" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>841</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC20" t="s">
-        <v>860</v>
-      </c>
-      <c r="CD20">
-        <v>2</v>
-      </c>
-      <c r="CE20">
-        <v>9</v>
-      </c>
-      <c r="CF20">
-        <v>45</v>
-      </c>
-      <c r="CG20">
-        <v>2.6</v>
-      </c>
-      <c r="CH20" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI20">
-        <v>18</v>
-      </c>
-      <c r="CJ20">
-        <v>18</v>
-      </c>
-      <c r="CK20">
-        <v>92.88</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>837</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>846</v>
-      </c>
-      <c r="CO20" t="s">
-        <v>852</v>
-      </c>
-      <c r="CP20" t="s">
-        <v>857</v>
-      </c>
-      <c r="CQ20">
-        <v>1</v>
-      </c>
-      <c r="CR20">
-        <v>17</v>
-      </c>
-      <c r="CS20">
-        <v>170</v>
-      </c>
-      <c r="CT20">
-        <v>2.6</v>
-      </c>
-      <c r="CU20" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV20">
-        <v>21</v>
-      </c>
-      <c r="CX20">
-        <v>92.88</v>
-      </c>
-      <c r="CY20" t="s">
-        <v>829</v>
-      </c>
-      <c r="CZ20" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA20" t="s">
-        <v>866</v>
-      </c>
-      <c r="DB20" t="s">
-        <v>853</v>
-      </c>
-      <c r="DC20" t="s">
-        <v>855</v>
-      </c>
-      <c r="DD20">
-        <v>30</v>
-      </c>
-      <c r="DE20">
-        <v>92</v>
-      </c>
-      <c r="DF20">
-        <v>12.266666666666669</v>
-      </c>
-      <c r="DG20">
-        <v>2.61</v>
-      </c>
-      <c r="DH20" t="s">
-        <v>812</v>
-      </c>
-      <c r="DI20">
-        <v>20</v>
-      </c>
-      <c r="DK20">
-        <v>162.54</v>
-      </c>
-      <c r="DL20" t="s">
-        <v>829</v>
-      </c>
-      <c r="DM20" t="s">
-        <v>836</v>
-      </c>
-      <c r="DN20" t="s">
-        <v>848</v>
-      </c>
-      <c r="DO20" t="s">
-        <v>853</v>
-      </c>
-      <c r="DP20" t="s">
-        <v>855</v>
-      </c>
-      <c r="DQ20">
-        <v>2</v>
-      </c>
-      <c r="DR20">
-        <v>12</v>
-      </c>
-      <c r="DS20">
-        <v>60</v>
-      </c>
-      <c r="DT20">
-        <v>2.6</v>
-      </c>
-      <c r="DU20" t="s">
-        <v>812</v>
-      </c>
-      <c r="DV20">
-        <v>21</v>
-      </c>
-      <c r="DW20">
-        <v>20</v>
-      </c>
-      <c r="DX20">
-        <v>69.66</v>
-      </c>
-      <c r="DY20" t="s">
-        <v>829</v>
-      </c>
-      <c r="DZ20" t="s">
-        <v>837</v>
-      </c>
-      <c r="EA20" t="s">
-        <v>842</v>
-      </c>
-      <c r="EB20" t="s">
-        <v>853</v>
-      </c>
-      <c r="EC20" t="s">
-        <v>855</v>
-      </c>
-      <c r="ED20">
-        <v>2</v>
-      </c>
-      <c r="EE20">
-        <v>17</v>
-      </c>
-      <c r="EF20">
-        <v>17</v>
-      </c>
-      <c r="EG20">
-        <v>2.15</v>
-      </c>
-      <c r="EH20" t="s">
-        <v>813</v>
-      </c>
-      <c r="EK20">
-        <v>116.1</v>
-      </c>
-      <c r="EM20" t="s">
-        <v>836</v>
-      </c>
-      <c r="EN20" t="s">
-        <v>846</v>
-      </c>
-      <c r="EO20" t="s">
-        <v>852</v>
-      </c>
-      <c r="EP20" t="s">
-        <v>857</v>
-      </c>
-      <c r="EQ20">
-        <v>1</v>
-      </c>
-      <c r="ER20">
-        <v>17</v>
-      </c>
-      <c r="ES20">
-        <v>170</v>
-      </c>
-      <c r="ZV20" t="s">
-        <v>887</v>
-      </c>
-      <c r="ZW20" t="s">
-        <v>893</v>
-      </c>
-      <c r="ZX20" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY20">
-        <v>0</v>
-      </c>
-      <c r="ZZ20" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAA20" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAB20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AAF20" t="s">
-        <v>902</v>
-      </c>
-      <c r="AAG20" t="s">
-        <v>890</v>
-      </c>
-      <c r="AAH20" t="s">
-        <v>896</v>
-      </c>
-      <c r="AAI20">
-        <v>20</v>
-      </c>
-      <c r="AAJ20" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAK20" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAL20">
-        <v>2</v>
-      </c>
-      <c r="AAP20" t="s">
-        <v>885</v>
-      </c>
-      <c r="AAQ20" t="s">
-        <v>890</v>
-      </c>
-      <c r="AAR20" t="s">
-        <v>897</v>
-      </c>
-      <c r="AAS20">
-        <v>150</v>
-      </c>
-      <c r="AAT20" t="s">
-        <v>898</v>
-      </c>
-      <c r="AAU20" t="s">
-        <v>899</v>
-      </c>
-      <c r="AAV20">
-        <v>2</v>
-      </c>
-      <c r="ABC20">
-        <v>0</v>
-      </c>
-      <c r="ABD20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABE20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABF20">
-        <v>2</v>
-      </c>
-      <c r="ABM20">
-        <v>0</v>
-      </c>
-      <c r="ABN20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABO20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABP20">
-        <v>2</v>
-      </c>
-      <c r="ABW20">
-        <v>0</v>
-      </c>
-      <c r="ABX20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABY20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABZ20">
-        <v>2</v>
-      </c>
-      <c r="ACG20">
-        <v>0</v>
-      </c>
-      <c r="ACH20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ACI20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ACJ20">
-        <v>2</v>
-      </c>
-      <c r="ACQ20">
-        <v>0</v>
-      </c>
-      <c r="ACR20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ACS20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ACT20">
-        <v>2</v>
-      </c>
-      <c r="ADA20">
-        <v>0</v>
-      </c>
-      <c r="ADB20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ADC20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ADD20">
-        <v>2</v>
-      </c>
-      <c r="ADK20">
-        <v>0</v>
-      </c>
-      <c r="ADL20" t="s">
-        <v>898</v>
-      </c>
-      <c r="ADM20" t="s">
-        <v>899</v>
-      </c>
-      <c r="ADN20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:794" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>923</v>
-      </c>
-      <c r="B21">
-        <v>69117</v>
-      </c>
-      <c r="C21">
-        <v>2003</v>
-      </c>
-      <c r="D21">
-        <v>255.72800000000001</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>796</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>14.784214412913499</v>
-      </c>
-      <c r="I21">
-        <v>24.141677219430601</v>
-      </c>
-      <c r="J21">
-        <v>25.473897733119301</v>
-      </c>
-      <c r="K21">
-        <v>16.381329192137901</v>
-      </c>
-      <c r="L21">
-        <v>0.75</v>
-      </c>
-      <c r="M21">
-        <v>0.25</v>
-      </c>
-      <c r="N21">
-        <v>0.25</v>
-      </c>
-      <c r="O21">
-        <v>0.25</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>801</v>
-      </c>
-      <c r="S21" t="s">
-        <v>805</v>
-      </c>
-      <c r="T21" t="s">
-        <v>805</v>
-      </c>
-      <c r="U21" t="s">
-        <v>805</v>
-      </c>
-      <c r="V21" t="s">
-        <v>805</v>
-      </c>
-      <c r="W21" t="s">
-        <v>811</v>
-      </c>
-      <c r="X21" t="s">
-        <v>811</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>811</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>811</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>812</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>812</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>812</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>808</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>808</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>808</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>808</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>811</v>
-      </c>
-      <c r="AJ21">
-        <v>1.5238095238095239</v>
-      </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>811</v>
-      </c>
-      <c r="AM21">
-        <v>15.66666666666667</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP21">
-        <v>11</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV21">
-        <v>21</v>
-      </c>
-      <c r="AX21">
-        <v>127.864</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>829</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>836</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>847</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>852</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>857</v>
-      </c>
-      <c r="BD21">
-        <v>70</v>
-      </c>
-      <c r="BE21">
-        <v>130</v>
-      </c>
-      <c r="BF21">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="BG21">
-        <v>4.92</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>812</v>
-      </c>
-      <c r="BI21">
-        <v>21</v>
-      </c>
-      <c r="BK21">
-        <v>38.359200000000001</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>829</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>836</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>844</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>852</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>857</v>
-      </c>
-      <c r="BQ21">
-        <v>10</v>
-      </c>
-      <c r="BR21">
-        <v>40</v>
-      </c>
-      <c r="BS21">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="BT21">
-        <v>4.92</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>812</v>
-      </c>
-      <c r="BV21">
-        <v>21</v>
-      </c>
-      <c r="BX21">
-        <v>38.359200000000001</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>836</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>844</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>852</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>857</v>
-      </c>
-      <c r="CD21">
-        <v>10</v>
-      </c>
-      <c r="CE21">
-        <v>40</v>
-      </c>
-      <c r="CF21">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="CG21">
-        <v>4.08</v>
-      </c>
-      <c r="CH21" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI21">
-        <v>21</v>
-      </c>
-      <c r="CK21">
-        <v>25.572800000000001</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>829</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>836</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>841</v>
-      </c>
-      <c r="CO21" t="s">
-        <v>852</v>
-      </c>
-      <c r="CP21" t="s">
-        <v>857</v>
-      </c>
-      <c r="CQ21">
-        <v>2</v>
-      </c>
-      <c r="CR21">
-        <v>23</v>
-      </c>
-      <c r="CS21">
-        <v>46</v>
-      </c>
-      <c r="CT21">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="CU21" t="s">
-        <v>812</v>
-      </c>
-      <c r="CV21">
-        <v>17</v>
-      </c>
-      <c r="CX21">
-        <v>25.572800000000001</v>
-      </c>
-      <c r="CY21" t="s">
-        <v>829</v>
-      </c>
-      <c r="CZ21" t="s">
-        <v>836</v>
-      </c>
-      <c r="DA21" t="s">
-        <v>846</v>
-      </c>
-      <c r="DB21" t="s">
-        <v>852</v>
-      </c>
-      <c r="DC21" t="s">
-        <v>858</v>
-      </c>
-      <c r="DD21">
-        <v>1</v>
-      </c>
-      <c r="DE21">
-        <v>23</v>
-      </c>
-      <c r="DF21">
-        <v>230</v>
-      </c>
-      <c r="ZV21" t="s">
-        <v>888</v>
-      </c>
-      <c r="ZW21" t="s">
-        <v>893</v>
-      </c>
-      <c r="ZX21" t="s">
-        <v>894</v>
-      </c>
-      <c r="ZY21">
-        <v>170</v>
-      </c>
-      <c r="AAF21" t="s">
-        <v>901</v>
-      </c>
-      <c r="AAI21">
-        <v>0</v>
-      </c>
-      <c r="AAS21">
-        <v>0</v>
-      </c>
-      <c r="ABC21">
-        <v>0</v>
-      </c>
-      <c r="ABM21">
-        <v>0</v>
-      </c>
-      <c r="ABW21">
-        <v>0</v>
-      </c>
-      <c r="ACG21">
-        <v>0</v>
-      </c>
-      <c r="ACQ21">
-        <v>0</v>
-      </c>
-      <c r="ADA21">
-        <v>0</v>
-      </c>
-      <c r="ADK21">
         <v>0</v>
       </c>
     </row>

--- a/data_preprocessing/tiefenerhebung/TE_data/#Alle_Daten_DB_TE_inkl_TEK_GEO_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/#Alle_Daten_DB_TE_inkl_TEK_GEO_Auszug.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\ABGABE\Dynamic ISO Building Simulator\iso_simulator\auxiliary\TE_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\DIBS---Dynamic-ISO-Building-Simulator-master\data_preprocessing\tiefenerhebung\TE_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2669399-BCD8-471C-B2FB-0C07248A6423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2976,7 +2977,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3127,6 +3128,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3162,6 +3180,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3337,19 +3372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ADO51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5771,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="2" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>934</v>
       </c>
@@ -6218,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>935</v>
       </c>
@@ -6595,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>936</v>
       </c>
@@ -7026,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>937</v>
       </c>
@@ -7427,12 +7462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>938</v>
       </c>
       <c r="B6">
-        <v>14727</v>
+        <v>29640</v>
       </c>
       <c r="C6">
         <v>2001</v>
@@ -7480,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="S6" t="s">
         <v>805</v>
@@ -7819,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>939</v>
       </c>
@@ -8247,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>940</v>
       </c>
@@ -8723,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>941</v>
       </c>
@@ -9178,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>942</v>
       </c>
@@ -9654,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>943</v>
       </c>
@@ -10175,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>944</v>
       </c>
@@ -10696,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>945</v>
       </c>
@@ -11310,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>946</v>
       </c>
@@ -11660,12 +11695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>947</v>
       </c>
       <c r="B15">
-        <v>76133</v>
+        <v>1589</v>
       </c>
       <c r="C15">
         <v>1950</v>
@@ -12181,12 +12216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:795" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:795" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>948</v>
       </c>
       <c r="B16">
-        <v>76133</v>
+        <v>29633</v>
       </c>
       <c r="C16">
         <v>1967</v>
@@ -12645,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>949</v>
       </c>
@@ -13268,7 +13303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>950</v>
       </c>
@@ -13321,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="S18" t="s">
         <v>805</v>
@@ -13942,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>951</v>
       </c>
@@ -14427,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>952</v>
       </c>
@@ -15002,7 +15037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>953</v>
       </c>
@@ -15361,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>954</v>
       </c>
@@ -15675,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>955</v>
       </c>
@@ -16217,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>956</v>
       </c>
@@ -16930,12 +16965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>957</v>
       </c>
       <c r="B25">
-        <v>18211</v>
+        <v>29640</v>
       </c>
       <c r="C25">
         <v>1978</v>
@@ -17448,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>958</v>
       </c>
@@ -17873,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>959</v>
       </c>
@@ -18208,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>960</v>
       </c>
@@ -18675,12 +18710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>961</v>
       </c>
       <c r="B29">
-        <v>31832</v>
+        <v>1589</v>
       </c>
       <c r="C29">
         <v>1999</v>
@@ -19091,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>962</v>
       </c>
@@ -19519,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>963</v>
       </c>
@@ -19803,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:794" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:794" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>964</v>
       </c>
@@ -19856,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="S32" t="s">
         <v>805</v>
@@ -20111,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>965</v>
       </c>
@@ -20455,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>966</v>
       </c>
@@ -20910,12 +20945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>967</v>
       </c>
       <c r="B35">
-        <v>29614</v>
+        <v>1589</v>
       </c>
       <c r="C35">
         <v>1968</v>
@@ -21170,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>968</v>
       </c>
@@ -21469,7 +21504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>969</v>
       </c>
@@ -21681,7 +21716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>970</v>
       </c>
@@ -21980,7 +22015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>971</v>
       </c>
@@ -22390,7 +22425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>972</v>
       </c>
@@ -22731,12 +22766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>973</v>
       </c>
       <c r="B41">
-        <v>21423</v>
+        <v>1589</v>
       </c>
       <c r="C41">
         <v>1979</v>
@@ -23156,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>974</v>
       </c>
@@ -23209,7 +23244,7 @@
         <v>0.12</v>
       </c>
       <c r="R42" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="S42" t="s">
         <v>806</v>
@@ -24379,12 +24414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>975</v>
       </c>
       <c r="B43">
-        <v>24939</v>
+        <v>29640</v>
       </c>
       <c r="C43">
         <v>1959</v>
@@ -24912,7 +24947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>976</v>
       </c>
@@ -25304,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>977</v>
       </c>
@@ -25660,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>978</v>
       </c>
@@ -26091,7 +26126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>979</v>
       </c>
@@ -26144,7 +26179,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="S47" t="s">
         <v>806</v>
@@ -26303,7 +26338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>980</v>
       </c>
@@ -26701,7 +26736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>981</v>
       </c>
@@ -27048,12 +27083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>982</v>
       </c>
       <c r="B50">
-        <v>1796</v>
+        <v>66822</v>
       </c>
       <c r="C50">
         <v>1850</v>
@@ -27677,7 +27712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:791" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:791" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>983</v>
       </c>
